--- a/Hyper Parameter Results.xlsx
+++ b/Hyper Parameter Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI Laptop\Desktop\Code\Python\Jupyter Notebook\Thesis 2024 U.S. Presidential Election Sentiment Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B38B532-49D5-4ECB-AAA5-97D76C92238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0221532D-563A-4229-92AD-CCFB8A2289B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,12 +114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -136,6 +136,12 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -433,15 +439,28 @@
     <col min="5" max="5" width="8.88671875" style="6"/>
     <col min="6" max="8" width="8.88671875" style="3"/>
     <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -466,8 +485,32 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -477,23 +520,47 @@
       <c r="C3" s="5">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>0.69364664926022601</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>0.85233128733105101</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>0.68452564921087999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>0.68411005265992797</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="9">
         <v>0.69364664926022601</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>32</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.68146214099216695</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.76395166416962901</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.67615669444555004</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.69068371008503004</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.68146214099216695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -503,23 +570,47 @@
       <c r="C4" s="5">
         <v>32</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>0.70234986945169697</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>0.81125626133547801</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>0.70859025713081802</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="9">
         <v>0.72423409223425705</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="9">
         <v>0.70234986945169697</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>32</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.69538729329852</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.76935780296723</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.69065368770299795</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.68883261066568802</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.69538729329852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -529,157 +620,232 @@
       <c r="C5" s="5">
         <v>32</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.71540469973890297</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>1.1379542383882699</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>0.71880727293132096</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>0.72479653085152795</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>0.71540469973890297</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>32</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.69799825935596105</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.73892900513278104</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.69909563298247102</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.71023540726565704</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.69799825935596105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="7"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="J6" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>16</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.71714534377719696</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.87437102219296803</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.71170087876424204</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.71130672220174396</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.71714534377719696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J7" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>32</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.71801566579634402</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.81000777499543297</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.71604160463822497</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.71616392262700201</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.71801566579634402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J8" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="K8" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.67362924281984304</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.82945016730162802</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.67868711760860001</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.692552902661973</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.67362924281984304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="L8" s="5">
+        <v>32</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.70670147954743201</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.755784278114636</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.69497139849516298</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.69739551632010999</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.70670147954743201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J9" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.67885117493472502</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.96701505200730398</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.68228426094511796</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.69568085027563697</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.67885117493472502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>32</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.68320278503046095</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.87845367689927401</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.68418047287309502</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.68552395061328497</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.68320278503046095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J10" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.68059181897302001</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1.2956163502401701</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.68680485009665304</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.70217432191699702</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.68059181897302001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>32</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.69364664926022601</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.74011119537883296</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.70129975963187696</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.72085063367423796</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.69364664926022601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J11" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5">
+        <v>32</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.69625761531766694</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.87522508203983296</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.68508116014718301</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.68471409955132301</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.69625761531766694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -704,228 +870,335 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.68146214099216695</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.76395166416962901</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.67615669444555004</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.69068371008503004</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.68146214099216695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.67362924281984304</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.82945016730162802</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.67868711760860001</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.692552902661973</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.67362924281984304</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>32</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.66753698868581302</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.93434653927882505</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.67110644602084601</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.68321254360706096</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.66753698868581302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>32</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.67885117493472502</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.96701505200730398</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.68228426094511796</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.69568085027563697</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.67885117493472502</v>
+      </c>
+      <c r="J16" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.69538729329852</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.76935780296723</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.69065368770299795</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.68883261066568802</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.69538729329852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>32</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.67711053089643103</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.76842873212363905</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.67175795474178202</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0.66997783499008601</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.67711053089643103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.68059181897302001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.2956163502401701</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.68680485009665304</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.70217432191699702</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.68059181897302001</v>
+      </c>
+      <c r="J17" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="5">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.69799825935596105</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.73892900513278104</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.69909563298247102</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.71023540726565704</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.69799825935596105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="L17" s="5">
+        <v>32</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.68320278503046095</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.75432007014751401</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.68281244773928595</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.68328239639872601</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.68320278503046095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.71801566579634402</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.81000777499543297</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.71604160463822497</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.71616392262700201</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.71801566579634402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>32</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.66753698868581302</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.93434653927882505</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.67110644602084601</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.68321254360706096</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.66753698868581302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
+        <v>16</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.67885117493472502</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.90440371901624705</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.68057273513474803</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.68466384474521802</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.67885117493472502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J19" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+      <c r="L19" s="5">
+        <v>32</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.67798085291557797</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.80893432762887696</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.68191729575933202</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.69141388318916097</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.67798085291557797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J20" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="5">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.67711053089643103</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.76842873212363905</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.67175795474178202</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.66997783499008601</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.67711053089643103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="L20" s="5">
+        <v>32</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.67188859878154905</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.74695446673366706</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.67689719020205597</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.687682409524491</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.67188859878154905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J21" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>32</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.66579634464751902</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.91638502892520601</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.67662286513092396</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.70588283528600004</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.66579634464751902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J22" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K22" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.68320278503046095</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.75432007014751401</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.68281244773928595</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.68328239639872601</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.68320278503046095</v>
+      <c r="L22" s="5">
+        <v>32</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.69451697127937295</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.76035804301500298</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.69121840422337399</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.68925283247633395</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.69451697127937295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J23" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>32</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.66579634464751902</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.92361577434672204</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.66539871693988195</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.68291234725374905</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.66579634464751902</v>
       </c>
     </row>
   </sheetData>

--- a/Hyper Parameter Results.xlsx
+++ b/Hyper Parameter Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI Laptop\Desktop\Code\Python\Jupyter Notebook\Thesis 2024 U.S. Presidential Election Sentiment Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B14C4A-87C0-4ABD-A261-9DC3E0848191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D734A1-E28D-492D-8985-2A7C597F977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>DistilBERT</t>
   </si>
@@ -126,27 +126,6 @@
     <t>[0.7858528163697984, 0.7976458966732025, 0.8670712841881646]</t>
   </si>
   <si>
-    <t>[00:18, 00:17]</t>
-  </si>
-  <si>
-    <t>[0.904716466154371, 0.6097782379578031]</t>
-  </si>
-  <si>
-    <t>[0.8157684571213193, 0.831068711148368]</t>
-  </si>
-  <si>
-    <t>[0.6521739130434783, 0.6452173913043479]</t>
-  </si>
-  <si>
-    <t>[09:57, 09:52]</t>
-  </si>
-  <si>
-    <t>[0.6480797383737462, 0.6530059332697362]</t>
-  </si>
-  <si>
-    <t>[0.6884005461037597, 0.65255393614861]</t>
-  </si>
-  <si>
     <t>[0.8646149614027568, 0.5716987605842333, 0.3466293383981027]</t>
   </si>
   <si>
@@ -168,27 +147,6 @@
     <t>[0.6612515895799465, 0.6737639540646849, 0.6822699085997072]</t>
   </si>
   <si>
-    <t>[0.6278408759292932, 0.6620746967041253, 0.6549930439729722]</t>
-  </si>
-  <si>
-    <t>[0.6398938140328111, 0.6843970654019851, 0.6822605563964715]</t>
-  </si>
-  <si>
-    <t>[0.6365217391304347, 0.6573913043478261, 0.6556521739130434]</t>
-  </si>
-  <si>
-    <t>[09:37, 09:36, 09:44]</t>
-  </si>
-  <si>
-    <t>[00:16, 00:16, 00:17]</t>
-  </si>
-  <si>
-    <t>[0.8818925008887336, 0.6173487158994826, 0.42477637411109986]</t>
-  </si>
-  <si>
-    <t>[0.8030303418636322, 0.7759144372410245, 0.9057191709677378]</t>
-  </si>
-  <si>
     <t>[0.671304347826087, 0.688695652173913, 0.662608695652174, 0.6591304347826087, 0.662608695652174]</t>
   </si>
   <si>
@@ -231,27 +189,6 @@
     <t>[0.781852218012015, 0.8006274534596337]</t>
   </si>
   <si>
-    <t>[0.6608695652173913, 0.6904347826086956]</t>
-  </si>
-  <si>
-    <t>[0.6634299696947469, 0.6825512289642724]</t>
-  </si>
-  <si>
-    <t>[0.6566492121251768, 0.6814955866699418]</t>
-  </si>
-  <si>
-    <t>[22:33, 22:24]</t>
-  </si>
-  <si>
-    <t>[00:35, 00:36]</t>
-  </si>
-  <si>
-    <t>[0.8187154167228274, 0.7854736944039663]</t>
-  </si>
-  <si>
-    <t>[0.8561666555820949, 0.5724354757676049]</t>
-  </si>
-  <si>
     <t>[19:46, 19:35, 19:34]</t>
   </si>
   <si>
@@ -273,27 +210,6 @@
     <t>[0.8553249172511554, 0.5720223837665149, 0.3311318896622175]</t>
   </si>
   <si>
-    <t>[0.6347826086956522, 0.7043478260869566, 0.6452173913043479]</t>
-  </si>
-  <si>
-    <t>[0.6480549281034412, 0.7105320998080323, 0.6767447668552465]</t>
-  </si>
-  <si>
-    <t>[0.6301872134628939, 0.7049034440738281, 0.6450507069291269]</t>
-  </si>
-  <si>
-    <t>[25:47, 26:24, 28:57]</t>
-  </si>
-  <si>
-    <t>[00:35, 00:34, 00:33]</t>
-  </si>
-  <si>
-    <t>[0.8243261211448245, 0.7525463104248047, 0.9648129310872819]</t>
-  </si>
-  <si>
-    <t>[0.9177804825797914, 0.6076507688987822, 0.3756734441433634]</t>
-  </si>
-  <si>
     <t>[0.6730434782608695, 0.6852173913043478, 0.6765217391304348]</t>
   </si>
   <si>
@@ -339,12 +255,6 @@
     <t>Sum of Training Time</t>
   </si>
   <si>
-    <t>19 min 49 sec</t>
-  </si>
-  <si>
-    <t>28 min 57 sec</t>
-  </si>
-  <si>
     <t>28 min 23 sec</t>
   </si>
   <si>
@@ -357,12 +267,6 @@
     <t>20 min 56 sec</t>
   </si>
   <si>
-    <t>44 min 57 sec</t>
-  </si>
-  <si>
-    <t>1 hr 21 min 8 sec</t>
-  </si>
-  <si>
     <t>58 min 55 sec</t>
   </si>
   <si>
@@ -373,6 +277,60 @@
   </si>
   <si>
     <t>39 min 1 sec</t>
+  </si>
+  <si>
+    <t>Test Labels</t>
+  </si>
+  <si>
+    <t>Test Predictions</t>
+  </si>
+  <si>
+    <t>[1, -1, -1, -1, 0, -1, -1, 0, 1, 0, 0, 1, -1, -1, -1, 1, 0, 0, 0, 1, 1, 1, 0, -1, 0, -1, -1, 1, 1, 0, 0, 0, 0, -1, 1, 1, -1, 0, 0, 1, 0, -1, 0, -1, -1, 1, 1, 0, -1, 1, -1, 1, -1, -1, -1, 1, -1, 0, 0, 0, 1, -1, -1, 1, 1, 1, 1, 1, -1, 0, 0, 1, -1, -1, 0, 1, 1, 0, -1, 1, 1, 0, -1, -1, 1, -1, -1, 1, 0, -1, 1, -1, 0, 1, 1, -1, -1, -1, -1, 1, -1, 1, 0, 1, 1, -1, 1, 0, -1, 0, -1, 0, -1, 0, 1, 0, -1, -1, 1, 1, 1, -1, 1, 1, -1, 0, -1, 1, 1, 1, -1, 0, 0, -1, 0, 1, -1, -1, 1, 1, -1, -1, 0, -1, -1, 0, 1, -1, 0, 1, 0, 0, 1, 1, 1, -1, 0, 1, -1, 1, 1, 0, 1, 1, 0, -1, 1, 1, 1, -1, -1, 1, 0, 1, 0, 1, -1, 1, 0, 1, 0, 1, -1, -1, 1, 0, -1, 0, 1, 1, 1, -1, -1, -1, -1, 1, -1, 1, 0, 0, -1, -1, 1, 1, 1, 0, 0, 0, 1, 0, 0, -1, 0, -1, 1, -1, 0, -1, -1, -1, 0, -1, 0, -1, 1, 0, 0, 1, -1, 1, 1, 0, 0, 1, 1, 0, 1, 1, -1, -1, -1, -1, 0, 0, 0, 1, -1, 1, -1, 1, 1, -1, 0, -1, 1, 1, -1, -1, -1, 0, 1, -1, 0, -1, -1, 0, 1, 0, -1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 1, -1, 0, 0, -1, -1, -1, 1, -1, 1, -1, 1, -1, 0, 1, 1, -1, -1, 1, 0, 0, 1, 1, -1, -1, -1, 1, -1, 1, 0, -1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, -1, -1, 0, -1, 1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 1, 0, -1, 1, 1, -1, 1, -1, 1, 0, 1, 1, 1, 0, 0, 0, 1, -1, 0, 1, 0, 0, 1, 1, 1, -1, 1, 1, 0, -1, 1, -1, 0, 1, 0, -1, 0, -1, -1, -1, -1, 1, 1, 1, 0, 0, 1, 1, 1, 0, -1, 1, -1, 0, -1, -1, 0, 1, 1, 1, 0, 0, 1, 0, -1, 1, -1, -1, 1, 1, 0, -1, 0, 1, 1, -1, -1, 1, -1, -1, 1, -1, -1, 1, 1, 1, 0, -1, 1, 1, 0, -1, -1, 1, 1, 1, 0, 1, -1, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, -1, 1, 1, 1, 0, 1, -1, 1, 1, -1, -1, -1, -1, 1, -1, 1, -1, 1, 0, 1, 0, 0, 1, 1, 1, -1, 0, 1, -1, 0, 0, 1, 1, 0, -1, 1, 1, -1, 1, 1, 1, -1, 1, 0, -1, 0, 0, -1, -1, 1, -1, 1, 1, 0, 1, -1, 1, -1, 1, 1, 0, -1, -1, 1, -1, -1, 1, 0, 1, 1, 1, -1, 0, 0, 1, 0, 1, -1, -1, 1, 1, 0, 1, 1, 1, 0, 1, 0, -1, 0, 1, 1, 0, 1, 0, 1, -1, 0, 0, 1, -1, 1, 1, 1, 1, -1, -1, 0, 1, 1, 0, 0, 0, -1, 1, 1, 0, 0, -1, 1, -1, 1, -1, 0, -1, -1, -1, 1, 0, 0, 0, 0, 0, 1, -1, 1, 1, 0, 0, 1, 0, 1, -1, 0, 1, 1, 1, -1, -1, 1, 0, 1, 0, 0, 1, -1, -1, 1, -1, -1, 0, -1, -1, -1, -1, 1, 1, 0, 0, -1, 0, 1, 0, -1, 0, 1, -1, 1, 1, 1, 1, 1, -1, 1, -1, 1, 0, 1, 1, -1, -1, -1, 1, -1, -1, 1, -1, 1, 1, -1, 1, -1, 0, 0, 1, 1, 1, -1, 1, 0, 1, 0, 1, -1, 1, -1, -1, -1, 1, 1, 0, -1, 1, -1, 1, 1, 0, -1, 0, -1, -1, 0, 0, -1, -1, 1, -1, 1, 0, 0, 1, 1, 1, 0, 1, 1, 0, -1, -1, 1, -1, 1, -1, 0, 1, 0, -1, 1, -1, -1, -1, -1, -1, 1, -1, 1, 1, 1, 0, -1, -1, -1, 1, -1, -1, 1, 1, -1, 1, 1, 0, 1, -1, 0, 1, -1, 1, 1, 1, 1, 1, 1, 1, -1, 1, -1, 0, -1, 1, -1, 1, 1, -1, -1, -1, 0, 1, 1, 1, -1, 0, -1, -1, 1, 1, -1, 1, -1, -1, -1, -1, -1, 0, 1, -1, 1, 0, 0, 1, 1, 0, -1, 1, 0, 0, 0, 0, 1, -1, -1, -1, 1, 0, 1, 0, 0, 1, 1, 1, 0, 0, -1, 1, 0, 1, -1, -1, -1, 1, 1, 1, -1, -1, 1, 1, 1, -1, 1, 1, -1, 1, -1, 1, 0, -1, 1, -1, -1, 1, 1, 0, 1, 0, 1, 1, 1, 0, -1, -1, 0, 1, -1, 1, 0, 1, 1, -1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, -1, 1, 0, 1, -1, 0, 1, 1, 1, -1, 0, 1, 1, 1, 0, 1, -1, 0, 1, -1, 1, 0, 1, -1, 1, 1, 0, -1, 0, 0, 0, 1, 0, 0, -1, -1, 1, 0, -1, -1, 1, 0, 1, -1, 1, 0, 1, 0, 1, -1, 1, 1, 0, -1, 1, 0, -1, 1, -1, 1, -1, 1, 1, 0, -1, 1, 0, -1, 0, 0, -1, 1, 1, -1, 1, -1, 1, -1, -1, -1, 1, 1, 1, 1, 1, 1, -1, -1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, -1, 1, 0, -1, 0, 1, 0, 0, 0, 1, 1, 1, -1, 0, 1, 0, 0, 1, -1, 1, 1, -1, 0, 0, 1, -1, -1, 1, 0, -1, 0, -1, -1, -1, 1, -1, -1, 1, -1, 1, 0, -1, 0, 1, -1, -1, 0, 0, 1, 0, -1, 1, 1, 1, -1, -1, 0, 1, 1, 0, 0, 0, 0, 1, -1, 0, 1, 0, -1, -1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, -1, -1, 0, -1, -1, 1, 1, 0, 0, 1, -1, 1, 1, 1, 1, -1, 0, 1, 1, 1, 1, -1, -1, 1, 1, 0, 0, 0, -1, -1, 0, -1, 0, -1, 1, -1, -1, 1, -1, 1, 1, 1, -1, 0, 0, -1, -1, 1, 1, -1, 1, -1, 1, -1, 1, -1, 0, -1, -1, -1, -1, -1, -1, 1, -1, 1, 0, 0, 0, 1, 1, 0, -1, 0, 1, -1, 1, -1, 0, 0, -1, 1, 1, 1, 0, -1, 0, -1, 0, -1, 0, 1, -1, 1, -1, 1, -1, -1, 0, 1, 1, -1, -1, 1, 1, 1, -1, -1, 0, 1, 0, -1, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[-1, -1, -1, -1, 0, -1, -1, -1, 1, 1, 0, 1, -1, -1, -1, 1, 1, 0, 0, -1, 0, 1, 1, -1, 0, -1, 0, -1, 1, 1, 1, 0, 0, 0, 1, 1, -1, 0, 0, 1, -1, -1, 0, -1, -1, 1, 0, 0, -1, 1, -1, 1, 1, -1, -1, 1, -1, 0, 0, -1, 0, -1, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, -1, 1, 1, 1, 1, -1, 1, 1, -1, -1, -1, 1, -1, -1, 1, 1, -1, 1, -1, 1, 1, 1, -1, 0, -1, -1, 1, 1, 1, 0, 1, 0, -1, 1, 0, -1, 0, -1, 0, -1, 0, 1, 1, -1, -1, 0, 1, 1, -1, 1, -1, 1, 0, -1, 1, 1, 1, -1, 1, 0, 0, -1, 1, 0, 0, 1, 1, -1, -1, 1, 1, -1, 0, 1, -1, 0, 1, 1, -1, 1, 1, 1, -1, 0, 1, -1, 1, 1, 0, 1, 1, 0, -1, 1, 0, 1, -1, -1, 1, 0, 0, 1, 1, -1, 1, 0, 1, 0, 0, -1, -1, 1, 0, 0, 0, 0, 1, 0, 0, -1, -1, 0, 1, -1, 1, 1, -1, -1, -1, 1, 0, 0, 0, 0, 0, 0, 0, 0, -1, 1, -1, 1, -1, 0, 0, -1, -1, 0, -1, 0, -1, 1, -1, 1, 1, -1, 1, 1, -1, -1, 1, 1, 0, 1, 1, -1, -1, -1, -1, -1, 0, 0, 1, -1, 0, -1, 1, 1, -1, 1, -1, 0, 1, -1, -1, 1, -1, 0, -1, 0, -1, -1, 0, 1, 0, -1, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, -1, 1, -1, 1, -1, 1, -1, 1, -1, 0, 1, 1, -1, -1, 1, 0, 0, 0, -1, 1, -1, -1, -1, 0, 1, 0, -1, 1, 0, 0, 1, 1, 1, 1, 1, 1, -1, 1, 1, 0, -1, -1, 0, 1, 1, 1, 1, 0, 1, 1, 1, 0, -1, 0, 1, 0, -1, 1, 1, -1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, -1, 0, 0, 0, 0, 1, -1, 1, -1, 1, 1, 0, 0, 1, -1, 0, 0, -1, -1, -1, -1, -1, -1, -1, 1, 1, 0, -1, 1, 1, 1, 1, 0, -1, 1, -1, 0, -1, -1, -1, 1, 1, 1, 1, -1, -1, 0, -1, 1, -1, -1, 1, 1, 0, -1, 0, -1, 1, 0, -1, 0, -1, 0, 1, -1, -1, 0, 1, 1, 0, -1, -1, 1, 1, -1, 1, 1, 0, 1, 0, 1, -1, 0, 1, -1, 1, 0, 0, 1, -1, 0, 1, -1, 0, 1, 0, 0, 1, 0, 1, 1, -1, 0, 0, -1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 1, -1, 0, 0, -1, 0, 1, 0, 1, 0, 0, 1, 1, -1, 0, 1, 1, -1, 1, 1, 0, 0, 0, -1, -1, 0, -1, 1, 1, -1, 1, -1, 0, -1, 1, 1, -1, -1, -1, 1, 1, 1, -1, 0, 1, 1, 1, -1, 0, 1, -1, -1, 1, -1, -1, 0, 1, 1, 0, 1, 1, 1, 1, 0, -1, 0, 1, 1, 0, 1, 0, 1, -1, -1, 0, 1, -1, 0, 1, 1, 1, -1, -1, 0, 1, 0, 0, 1, 1, -1, -1, 1, 1, 0, -1, 1, 1, 1, -1, 1, -1, 1, 1, 1, 1, 1, 0, -1, 1, 1, 0, 1, 1, 0, -1, 1, 1, 1, -1, 1, 1, 1, 1, -1, 1, 1, 0, -1, -1, 1, 1, -1, 0, -1, -1, -1, 0, -1, -1, -1, -1, 0, 1, -1, 0, -1, -1, -1, -1, -1, 1, 1, -1, 0, 1, 0, 1, 0, -1, 1, -1, 1, -1, 0, 1, 0, -1, -1, 1, 0, 1, -1, -1, -1, 1, -1, 0, -1, -1, 0, 1, 1, 1, -1, 1, 0, 0, 1, -1, -1, 1, -1, -1, -1, 0, 1, 1, -1, 0, -1, -1, 1, 0, -1, -1, -1, 1, -1, 1, -1, -1, 1, 0, 1, 0, 1, 1, 1, 0, -1, 1, 1, 0, -1, 0, 1, 0, 1, 0, 0, 1, 0, -1, 1, 0, 0, -1, -1, 1, 1, -1, 1, 1, 1, 0, 0, -1, -1, 1, -1, -1, 0, 1, -1, 1, 1, -1, 1, -1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 0, -1, 1, -1, -1, -1, 1, -1, 1, 1, -1, -1, -1, 0, 1, 1, 1, -1, 0, -1, -1, 1, 1, 1, 1, 0, 1, -1, -1, -1, 0, 0, 0, 1, -1, -1, -1, 1, 0, -1, 1, 0, 1, 1, 0, 0, -1, -1, -1, 1, 0, 1, 0, -1, 1, 1, 1, 1, 0, -1, 1, -1, 1, -1, -1, -1, 1, 1, 1, 0, -1, 1, 1, 1, -1, 1, 1, -1, 0, -1, 1, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, -1, 1, 0, 0, -1, -1, -1, 1, 0, 1, 0, 0, 0, -1, 1, 1, 1, 1, 1, 0, 1, 1, 1, -1, 0, 1, 1, -1, 1, -1, 1, -1, 0, 0, 1, 1, 0, 0, -1, 1, 1, 1, 1, -1, 1, 1, -1, 1, -1, 1, -1, 1, 1, 0, -1, 0, 1, 1, 1, 0, 1, -1, 0, 1, -1, -1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1, -1, 0, 0, 0, -1, 1, 0, 0, 1, 0, 1, -1, 1, 0, 1, -1, 1, 0, -1, 0, 0, -1, 1, 1, -1, 1, -1, 0, -1, -1, 1, 1, 1, 1, 1, 1, -1, -1, -1, 1, 1, 0, 1, 1, 0, 1, 0, 1, -1, 1, -1, 0, 0, -1, -1, 1, 1, -1, 0, 1, 1, 1, 0, 0, 1, 1, 0, 1, -1, 1, 1, -1, 0, 1, 1, 1, 0, 1, -1, -1, 1, 0, -1, 0, -1, -1, 0, 1, 0, 1, 0, -1, 1, 1, 0, 0, 0, 0, 0, 1, -1, 1, -1, 1, -1, -1, 1, -1, 1, 0, 0, 1, 1, -1, -1, 1, 1, 0, -1, -1, 1, 0, 1, 0, 1, 0, 1, 0, -1, 0, -1, -1, 0, -1, -1, -1, 0, 0, 1, 1, 0, 1, -1, -1, 0, -1, 0, -1, 0, 1, 1, 0, -1, 1, 0, 0, 0, -1, 0, 0, 1, -1, 0, -1, 1, -1, -1, 1, 0, 0, 0, 0, 0, -1, 0, -1, -1, -1, 0, -1, 1, -1, 1, -1, 1, -1, 0, -1, -1, -1, -1, -1, 0, 1, -1, 1, 1, 1, 0, 1, 0, 0, -1, 0, 1, -1, 1, -1, 1, 0, -1, 1, 1, 1, -1, -1, 0, -1, 1, -1, 1, 1, 0, 1, 0, 1, -1, -1, 1, 1, 1, -1, -1, 1, 1, 1, 0, -1, 0, 0, 1, -1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, -1, 0, -1, 1, -1, 1, -1, -1, 0, 1, 0, 1, 1, 0, 1, -1, -1, 1, 1, 1, 1, -1, 1, 1, 1, -1, -1, 0, 1, -1, -1, 1, 1, -1, -1, -1, 0, 0, 1, -1, -1, -1, 1, 1, 1, 1, 1, -1, 1, 1, -1, 1, 1, 1, 1, 1, 0, 0, 1, -1, 0, 1, 1, 1, -1, 1, 0, 0, 0, 1, -1, 1, -1, -1, -1, 0, 1, 0, 1, -1, -1, 1, 1, 0, 0, -1, 1, 1, -1, 0, 0, 1, 0, -1, 0, 0, 0, -1, 0, 1, 1, -1, -1, 1, -1, -1, -1, 1, 1, 1, 1, -1, -1, 0, 1, 1, 0, 1, -1, -1, -1, 0, -1, -1, 1, 0, 0, 0, 0, 1, -1, 0, -1, 0, 1, 1, -1, -1, 1, -1, 1, -1, -1, 1, -1, 1, -1, 0, 1, 0, 0, 1, 1, -1, -1, -1, 0, -1, 0, 1, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 1, -1, 1, 0, -1, -1, 1, 1, -1, 0, -1, -1, 1, 0, -1, -1, 1, 0, 1, 1, 0, -1, -1, 1, 1, 1, -1, 0, 0, -1, 0, 1, -1, 1, -1, -1, -1, -1, -1, -1, 0, 1, 1, 1, -1, 1, -1, 1, 1, 0, -1, 1, 0, 1, 0, 1, 1, -1, 0, 1, -1, 1, 1, -1, 1, 0, 0, -1, 1, 1, 1, -1, -1, 1, 1, 0, 0, -1, -1, 1, 0, 0, 1, 1, -1, -1, 0, 1, 0, -1, 0, 0, 0, -1, 0, -1, -1, 1, 1, -1, 1, 1, 1, 1, 1, -1, -1, -1, -1, 1, -1, 0, 0, 1, 1, -1, -1, 1, 1, 0, 1, 1, 0, -1, 1, -1, 0, 1, -1, 1, 0, -1, -1, 1, 0, -1, -1, 1, 0, -1, 1, 1, 0, -1, -1, -1, 1, 0, 1, -1, 1, 1, 1, 1, -1, 1, 1, 0, 0, 1, 1, -1, 0, 1, -1, -1, 1, -1, -1, 0, -1, 1, -1, -1, 1, 0, 1, 1, -1, 1, -1, -1, 1, -1, 0, 0, -1, 1, 1, 1, 1, 0, -1, -1, -1, 1, 1, -1, 1, -1, 1, 1, 1, 1, 1, 1, 1, -1, 0, 1, 1, 1, 1, -1, 1, 1, 0, -1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 1, 0, -1, 1, -1, 1, 0, -1, 1, 1, -1, 1, 0, 0, -1, -1, 1, -1, 1, -1, 0, -1, 1, 1, 0, 1, 0, -1, 0, 0, -1, 1, 1, 1, 0, -1, -1, 1, 1, 1, -1, 0, 1, 1, -1, -1, 0, 1, -1, 0, 1, 0, -1, 1, 0, 1, 1, -1, -1, 0, -1, 0, -1, 1, -1, -1, 1, 1, -1, 0, 1, -1, -1, 0, 1, 1, 1, 1, 0, 1, 0, 1, -1, -1, -1, -1, 0, 1, -1, 1, 0, 1, -1, 1, 0, 1, -1, 0, -1, -1, -1, -1, 1, -1, 0, 1, 1, 0, -1, -1, -1, 1, 0, 1, -1, 1, -1, 0, 0, -1, 1, 1, -1, 1, 1, -1, 1, -1, -1, 1, 0, 1, -1, -1, 1, 0, 0, -1, 1, 1, 0, 1, 1, -1, -1, 0, -1, 1, -1, 1, 1, 1, 1, 1, -1, 1, -1, -1, 0, -1, 0, -1, -1, 0, 1, 1, 0, 0, -1, -1, 1, 0, -1, 1, 1, 0, -1, -1, 1, 0, 1, 0, 0, 0, -1, 1, 0, -1, -1, 1, -1, 0, 0, 1, 1, 0, 1, 1, 1, 0, 1, -1, -1, 1, -1, -1, -1, 0, -1, 1, 1, -1, 1, 1, 0, -1, -1, -1, 1, 1, 0, -1, 0, -1, 1, -1, 1, 1, 0, 1, -1, -1, 0, 1, 0, -1, -1, 0, -1, -1, -1, 0, 1, 0, 0, 1, 1, -1, -1, 0, 1, 1, 0, -1, 0, 0, -1, 1, -1, -1, -1, 1, -1, -1, -1, 0, -1, 1, 0, 1, 1, 1, 0, 0, -1, 0, 1, 1, 0, -1, 1, 1, 1, 0, 0, 1, 0, 1, 1, -1, 0, 0, 1, 1, 1, 0, 1, 1, -1, 1, 1, 1, 0, 1, -1, 1, 0, -1, -1, 0, 0, 0, -1, -1, 1, 0, -1, -1, 1, 1, -1, 1, 1, 0, 0, 1, -1, -1, 1, 0, 0, 1, 1, 0, 1, -1, 1, 1, 1, -1, -1, -1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, -1, 1, 1, -1, -1, 1, 1, -1, 1, 1, 1, 0, 0, 1, 1, -1, 0, -1, 0, 1, 0, 1, 1, 1, 1, 0, -1, 1, 0, -1, 0, 1, 1, -1, 1, -1, -1, 1, 0, -1, 1, 0, 1, 0, 1, 0, 1, -1, -1, 1, -1, 0, -1, -1, -1, 0, 0, 0, -1, 0, -1, 1, 1, -1, -1, 0, 1, 0, 1, 1, 1, -1, -1, 1, 1, -1, 1, -1, 1, -1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, -1, 1, 0, 0, -1, 0, -1, 0, 1, 1, 0, -1, 0, 0, 1, -1, -1, 1, 0, 0, -1, 1, 1, -1, 1, -1, 1, -1, 1, 1, 1, 1, 1, 0, 1, -1, 0, -1, -1, 0, 0, 0, 1, 1, 1, 1, -1, 1, 0, -1, 0, 0, -1, 1, 0, 1, -1, 0, 1, 1, 0, 1, 0, 0, 0, 1, -1, 0, 1, 0, -1, 0, 0, -1, 1, 1, 0, -1, 1, 1, 1, 0, -1, 0, 1, -1, -1, -1, 0, 0, -1, 0, 1, -1, 0, 0, 0, -1, 0, 1, -1, 1, 1, 1, -1, -1, -1, 0, 1, 0, 1, -1, -1, -1, 0, 1, 0, 1, 1, 1, 0, 1, 0, -1, 1, -1, 1, -1, -1, 1, 0, 0, -1, -1, -1, -1, 0, 1, -1, 1, 1, 1, 0, 1, 1, 1, 1, -1, 0, 1, 1, 1, 1, -1, -1, 1, 0, 0, 0, 0, 0, -1, 1, 0, -1, 0, 1, 1, 1, 0, -1, 0, 1, 0, 0, -1, 0, -1, 0, -1, 1, -1, 1, -1, -1, 1, 1, 0, -1, -1, -1, -1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 1, 0, -1, 1, 0, 1, 1, 1, 1, 1, 0, 1, -1, -1, -1, -1, 1, 1, -1, 1, 1, -1, -1, 1, 0, -1, 1, 0, -1, 0, -1, 0, 1, 0, 0, 1, 1, 1, 1, 0, -1, 0, 1, -1, 0, 1, 1, 1, 1, 1, 0, -1, 1, 0, -1, -1, 1, 1, 0, 0, -1, 1, -1, 1, 1, -1, 1, 0, 1, -1, -1, 1, -1, -1, 1, 1, 0, 0, 1, 1, 0, 1, -1, 0, 0, 0, 0, 1, 1, 1, 1, -1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 1, -1, -1, 1, -1, 1, -1, -1, -1, 0, 0, 0, 1, 1, 1, -1, -1, -1, 1, 1, 0, 0, 0, 0, 1, -1, 0, 0, 1, -1, 1, 1, 1, -1, -1, 1, 0, 1, 1, -1, -1, -1, 1, -1, 1, 1, 1, -1, -1, 1, -1, 1, 1, 0, 1, 1, -1, 0, 1, -1, -1, 1, 1, 1, -1, 1, 0, 1, 1, 1, -1, 1, 1, 0, -1, 0, 1, -1, 1, -1, -1, 1, 1, 0, -1, 1, 0, 1, -1, 1, -1, 1, 0, -1, 1, 1, -1, -1, 0, 0, 1, -1, -1, 1, 0, -1, -1, 1, 1, 1, -1, 1, -1, 1, 1, 0, -1, 1, -1, -1, -1, 0, -1, 1, 1, 1, 0, 0, 0, 1, 1, 0, -1, 0, 1, 1, -1, -1, -1, -1, 1, -1, -1, 1, -1, 0, -1, 1, 1, 0, 1, 1, 1, -1, 0, 0, 0, 1, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 1, -1, 1, 1, -1, -1, 1, 1, -1, 1, -1, 0, 1, 0, 1, -1, 1, 0, 1, 1, -1, -1, -1, 1, 1, 1, -1, 0, 0, -1, 0, 1, -1, 1, -1, -1, -1, 1, 0, -1, 1, -1, -1, 1, -1, 1, -1, 1, 1, -1, 0, 1, 1, 1, 1, 1, 1, -1, 0, 1, -1, 1, -1, 0, 0, 1, 1, -1, 1, 1, 1, -1, -1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, -1, 0, 0, 0, 0, -1, 0, 0, 1, -1, 0, 0, -1, 1, 1, -1, 1, 0, 1, 1, 1, -1, -1, -1, -1, 1, -1, 1, 1, 1, -1, 1, 0, 1, 0, 0, -1, 1, 0, 0, 1, 0, 1, 0, -1, 0, 0, -1, -1, 1, -1, -1, -1, 0, 0, 0, 1, 1, 1, -1, -1, -1, 1, -1, 1, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, -1, 1, 1, 1, -1, -1, 1, -1, -1, 0, -1, 1, 1, -1, 1, 0, 1, 1, -1, 0, -1, 0, 1, -1, -1, 1, 1, -1, 1, 1, 0, 0, -1, -1, -1, 0, 1, -1, 1, -1, 1, 1, 1, 1, 1, 1, 1, -1, -1, 0, 1, -1, -1, -1, -1, 1, 1, -1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 1, 0, 1, 0, -1, 1, 1, -1, 1, 1, -1, 1, 1, 1, 1, -1, 1, -1, 1, -1, 0, -1, 1, 1, 1, 1, 1, -1, 0, 1, -1, 1, -1, 1, 0, -1, -1, 1, 0, 0, -1, 1, 1, 1, -1, -1, 0, 0, -1, 1, 1, 1, -1, 1, 0, 1, -1, -1, -1, 0, -1, 0, -1, 0, -1, 0, 1, 0, -1, 0, 1, -1, -1, 1, 1, 1, 1, 0, -1, 0, 0, 1, -1, 1, 0, 0, 0, 1, -1, 1, 1, 1, -1, 1, -1, 1, -1, 0, -1, 0, -1, -1, 1, -1, 0, 1, 1, 1, -1, -1, 1, 0, 0, -1, 0, 1, -1, 1, 0, -1, 0, 1, -1, 1, 0, -1, 1, -1, 1, 1, 1, 1, 1, -1, 1, 0, 0, -1, 1, 1, 0, 1, 1, -1, -1, 0, -1, 1, -1, 1, 1, 1, 1, 1, -1, 1, -1, 0, 0, -1, -1, -1, 1, 1, -1, 1, -1, 0, -1, -1, 0, 0, -1, 1, 1, 0, -1, -1, 1, 1, 1, 0, 0, 1, -1, -1, 1, 1, -1, 0, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, -1, -1, -1, 0, -1, 0, -1, -1, 0, 1, 1, -1, 1, 1, 1, -1, -1, -1, 1, 1, -1, 0, -1, -1, 1, -1, 1, 1, 0, 1, -1, -1, 1, 1, 0, -1, 0, 0, -1, 1, -1, 0, 1, 1, 1, 1, 1, -1, -1, 1, 1, 1, 1, 0, 0, 0, 0, 1, -1, -1, -1, 1, -1, -1, -1, -1, 1, 1, 0, 1, 1, 1, -1, 1, -1, 0, 1, 1, 0, -1, 0, 1, -1, -1, 1, 0, 0, 0, 1, -1, 0, -1, 0, -1, 1, 1, 0, 1, -1, 1, 1, 1, 1, 1, 0, 1, 1, -1, 0, -1, 1, 0, -1, -1, 1, 1, 1, -1, 1, 0, -1, 1, 1, 1, 0, 1, -1, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, -1, 1, -1, 1, 1, -1, 1, 1, 0, 1, 0, 1, 0, -1, 1, 1, 1, 0, -1, 1, 1, 1, -1, 1, 1, 0, 1, 0, 0, 1, -1, 1, 1, 1, -1, 0, 1, 1, 0, 1, 1, -1, 1, 1, 0, 1, 1, 1, -1, 1, -1, 0, 1, 1, -1, 1, 1, 1, 0, -1, 1, 1, -1, 1, 1, -1, 0, -1, -1, -1, 0, 0, 1, 0, 0, 1, 1, 1, -1, -1, 0, 1, -1, 1, 0, 1, -1, 0, 1, 1, -1, 1, -1, 1, 0, 1, 0, -1, -1, 1, -1, 1, 1, 0, 1, -1, 1, 1, 0, 0, -1, 0, -1, 0, 0, 1, -1, -1, 1, 0, 1, -1, 1, 1, 0, 0, -1, 1, 1, -1, 0, -1, 1, -1, 0, 1, 0, 1, 1, 1, 1, -1, 1, 0, -1, 0, -1, 0, 1, 0, 0, 1, 0, 0, 1, -1, 1, 0, -1, 1, -1, 1, -1, 0, 1, 1, -1, 1, 1, -1, 0, 0, -1, -1, 1, 1, -1, 0, 0, 0, 0, 1, 1, -1, 0, 1, 1, 0, -1, 0, 1, 1, -1, -1, 0, 1, -1, 0, 0, 1, 0, 1, 1, -1, 1, 1, -1, 1, 0, 1, -1, -1, -1, 1, 1, -1, 1, 1, -1, -1, -1, 1, -1, 1, 1, 1, 0, 0, 0, -1, 1, 1, 1, -1, -1, 1, 0, 0, -1, -1, 0, -1, -1, -1, -1, 1, 0, 1, 1, 0, 0, 1, 0, -1, 0, 0, 0, 1, 1, -1, 0, 1, 1, 1, 0, -1, 0, 1, 1, 0, -1, 0, 1, 1, 1, -1, 0, -1, 1, 0, 0, -1, 1, 1, 1, -1, -1, 1, 1, -1, 1, 1, 1, 0, 0, -1, -1, -1, 0, 0, -1, 1, 1, 1, 0, 1, 0, 1, -1, -1, 1, 1, 1, 1, 1, 1, 1, 0, 1, -1, 0, 0, 0, 1, 1, -1, 1, 1, -1, -1, 1, -1, -1, 1, 0, -1, 0, -1, 1, 0, 1, 1, 1, 1, 1, 1, 1, -1, 0, 1, -1, 0, 1, 1, 1, 1, 1, 0, 1, 1, -1, -1, 0, 1, 1, -1, 0, -1, 1, -1, 1, 1, -1, 1, 0, 1, 0, -1, 1, -1, 0, 1, 1, -1, 0, 1, 1, 0, -1, 0, -1, 0, 0, 1, 1, 1, 0, 1, -1, 1]</t>
+  </si>
+  <si>
+    <t>[0, -1, 1, -1, 1, 1, 1, 1, 0, 1, -1, 1, 1, -1, 1, -1, -1, -1, -1, 1, 1, 1, 1, 1, -1, -1, 1, -1, 0, 0, -1, 0, 0, 1, 1, 0, 0, 1, 0, -1, -1, 1, -1, -1, -1, 1, 0, -1, 0, 1, 1, 1, 0, 1, 0, -1, 1, 0, -1, -1, 1, 0, 1, 1, 1, 1, -1, -1, 1, 0, 0, -1, -1, -1, -1, 1, -1, 1, 1, 0, 0, -1, 0, 0, 1, 0, 0, -1, -1, -1, -1, -1, -1, -1, 1, -1, 0, 1, -1, 1, 1, 1, 1, -1, 0, 1, -1, 1, -1, -1, -1, 1, 0, 1, 0, -1, 1, -1, 1, 0, 0, 1, 1, 1, 0, -1, 0, 1, 1, 1, -1, 1, -1, -1, 0, -1, 1, 0, 1, -1, -1, 1, 1, 1, 1, 1, 1, 1, 1, -1, -1, 0, -1, 0, 0, -1, 0, -1, 0, 1, 0, 1, -1, 1, -1, -1, 1, 0, -1, 1, 0, 1, -1, 1, 0, 1, -1, 0, 0, 1, -1, -1, 1, -1, 0, 1, 0, 0, -1, 0, 1, 0, 0, 1, 0, 1, 1, 1, 1, -1, 1, -1, -1, -1, 1, 1, 1, 1, -1, 0, 0, 0, -1, 0, -1, 1, 1, 1, -1, -1, 1, -1, 1, 0, -1, -1, 0, 1, -1, -1, -1, -1, 1, 0, -1, 0, -1, -1, 1, 1, 1, 0, 0, -1, 1, 0, 1, 0, -1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 1, -1, 1, 0, 0, 1, 1, -1, -1, -1, -1, 0, 1, 1, 1, -1, -1, 1, -1, -1, 0, 1, 0, 1, 0, -1, 1, 1, 0, -1, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, -1, 1, -1, 1, -1, -1, -1, -1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 1, 0, 1, 1, 1, 1, 1, -1, 1, 0, 1, 0, -1, 0, 1, -1, 1, 1, 1, 1, 0, 1, 0, -1, 1, 1, -1, 1, -1, 0, 1, 1, 1, 1, 1, 0, 1, 1, 0, 0, -1, -1, 0, 0, -1, 0, 1, 1, 0, 0, 1, -1, -1, -1, -1, -1, 0, 1, -1, 1, 0, 0, -1, -1, 1, -1, 1, -1, 1, 0, 1, -1, 1, 1, 0, 1, 1, 0, 0, -1, 1, 1, -1, -1, 1, 1, 0, -1, 1, 0, 1, 1, 0, 1, -1, 1, 1, 0, 1, 1, 0, -1, -1, -1, 1, 1, 0, -1, 1, -1, -1, -1, 1, -1, 0, 1, 1, -1, 1, -1, 1, 1, 0, 0, 1, 0, -1, 1, -1, -1, 1, 1, -1, -1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, -1, -1, 0, 1, -1, 1, -1, 0, 0, -1, 1, 1, 1, 1, -1, -1, -1, 1, -1, -1, 1, -1, 1, 1, -1, 1, 0, 1, 1, 1, -1, -1, 1, 0, -1, 0, -1, 0, -1, -1, 0, 1, 1, 1, 1, -1, 1, 0, -1, -1, 1, 1, -1, 0, 0, 1, 0, 0, 1, 1, -1, 0, 0, 1, 0, 1, -1, 0, 0, 1, 1, -1, 0, 0, -1, 1, 0, -1, -1, 0, -1, 0, -1, -1, 1, -1, 0, 1, 0, 1, -1, 1, 1, 1, 1, 1, 1, 1, -1, 1, 0, -1, -1, 0, -1, 1, 1, -1, 0, -1, 0, 1, 1, -1, 0, 1, -1, 1, 0, 0, 1, -1, 1, -1, -1, 0, 0, 1, -1, 0, 1, -1, 1, -1, 1, -1, -1, 1, -1, -1, -1, -1, 1, -1, 0, -1, -1, -1, -1, 1, 0, 1, 1, 0, 1, -1, -1, 0, 0, 1, -1, 1, -1, -1, 1, 0, -1, 0, 1, 0, 1, -1, -1, 1, 0, 1, 1, 1, 1, 1, 1, -1, 1, 1, 1, 1, -1, 1, -1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, -1, 0, 1, -1, 1, 0, 0, 1, 0, -1, 1, 1, 0, 1, 1, 0, -1, 1, 0, -1, -1, 0, 1, 0, 0, -1, 1, 0, -1, 1, -1, -1, 1, -1, 0, 1, 1, 1, -1, 0, 0, 0, -1, -1, -1, 0, 1, 1, 0, -1, -1, -1, -1, 0, -1, 1, -1, 1, -1, 1, -1, 1, 1, -1, 1, 1, -1, 0, 1, 1, 1, -1, 0, 1, 1, 0, 1, -1, 1, 1, 0, 1, -1, 1, 0, 1, -1, 0, 1, 1, 0, 1, 0, 1, -1, 1, -1, 0, 1, 1, 1, 1, 1, 1, 0, 1, -1, -1, -1, 0, 0, 1, 0, 1, 1, -1, -1, -1, 1, -1, 1, 1, 1, -1, -1, 0, 0, 0, -1, 1, 0, -1, 1, 0, -1, 1, 1, 1, -1, -1, -1, -1, 1, 1, -1, 1, 1, 0, -1, 0, 0, 1, 1, 0, -1, 1, 0, -1, 1, -1, 0, 1, 0, -1, 1, -1, 0, 1, 1, -1, 0, 1, 1, 0, 0, 0, 1, -1, 0, 1, 0, 1, -1, -1, 1, 1, 0, 1, -1, 1, -1, -1, 1, 0, -1, 1, 0, 1, -1, 0, 0, -1, 1, 1, 1, 1, -1, 0, -1, 1, 0, 1, -1, 1, -1, 0, 1, -1, 0, -1, -1, 0, 1, -1, 0, 1, 1, 0, 1, -1, 1, 1, 0, 0, 1, 1, 0, 1, -1, -1, -1, 1, 1, 1, 0, -1, 1, 1, 1, 1, 0, 1, 1, -1, -1, -1, -1, -1, 1, -1, 0, 1, 0, 1, 1, 0, -1, 0, -1, 1, 0, 1, -1, 0, 1, 1, -1, -1, 1, -1, 0, 0, 1, 0, -1, 1, 1, 1, 1, 0, 1, 1, -1, 1, 1, 0, 1, 1, 0, 1, 1, 1, -1, -1, 1, 0, 1, -1, 0, 0, -1, -1, 1, -1, 0, -1, 1, 0, 0, 0, -1, -1, 0, -1, 1, -1, 0, -1, 1, -1, 1, 1, 1, 0, 1, 1, 1, -1, -1, 1, 0, 0, 1, 0, -1, 0, 0, -1, 0, 0, 0, 1, -1, -1, 1, -1, 1, -1, 0, 0, 1, 1, -1, -1, -1, -1, 0, 0, -1, 0, 1, -1, 1, -1, 0, -1, 1, 1, 1, 0, -1, -1, 1, -1, 1, 0, 1, 1, 1, -1, 1, 1, 0, 1, 0, 0, -1, 0, -1, 1, 1, 1, -1, 1, 1, 0, 1, 0, 0, 0, 1, 1, 1, -1, -1, 1, -1, -1, 0, 1, 1, -1, 0, -1, -1, 1, -1, -1, -1, -1, -1, -1, -1, 0, -1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, -1, 0, 1, 1, -1, -1, 1, -1, 1, 1, 0, 1, 1, 0, 1, -1, 1, 0, -1, -1, -1, 1, 1, 1, -1, 1, 1, 1, -1, 0, -1, 1, -1, 1, 1, 1, 0, 1, -1, 1, -1, -1, 1]</t>
+  </si>
+  <si>
+    <t>[0, -1, 0, 0, 1, 1, 0, 1, 0, 1, -1, 1, 1, 0, 1, -1, -1, -1, -1, 0, 1, 1, 0, 1, 0, -1, 1, 0, 1, 0, 0, -1, 1, 1, 1, 0, 0, 1, 1, -1, -1, 1, 1, -1, -1, 1, 0, -1, -1, 1, 1, 0, 0, 1, -1, -1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 1, -1, -1, 1, 0, 0, 0, -1, -1, 0, -1, 0, 0, 1, 0, 0, -1, 0, 0, 1, 0, -1, -1, -1, 0, -1, -1, 0, -1, 1, -1, 0, 1, -1, 1, 1, 0, 1, 0, 1, 1, -1, 1, 0, 0, -1, 1, -1, 1, 1, -1, 1, -1, 1, 0, 1, 1, 1, 1, 0, -1, 0, 1, 1, 1, 0, 1, 0, -1, 0, -1, 1, 1, 1, -1, -1, 0, 1, 1, 1, 1, 1, 1, 1, -1, -1, 1, -1, 0, 0, -1, 0, -1, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, -1, 1, 0, 1, -1, 1, 1, 1, -1, 0, 0, 1, -1, -1, 0, -1, -1, 1, 0, 0, 1, 1, 0, 0, 1, 1, -1, 0, 1, 1, 1, 0, 1, -1, 0, -1, 0, 1, 1, 0, -1, -1, -1, 0, -1, 0, 0, 1, 0, 1, -1, 1, 1, -1, 1, 1, -1, -1, 0, 1, -1, 0, 0, -1, 1, 0, -1, 0, 0, 1, 1, 1, 1, -1, 0, 0, 1, 0, 1, 0, -1, 1, 1, 0, 0, 1, 0, -1, 0, 1, -1, -1, 1, 1, 0, 1, 1, 0, -1, -1, -1, -1, 1, 0, 1, 0, -1, 1, -1, -1, 0, 1, 0, 1, 0, -1, 1, 1, 1, -1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, -1, 1, -1, 1, -1, -1, 0, -1, 0, 1, 0, 1, -1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 0, 1, -1, 1, 1, 1, 0, -1, -1, 1, -1, 1, 1, 1, 1, 0, 1, 0, 0, 1, 1, -1, 0, 0, 1, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, -1, -1, 0, 0, -1, 0, 1, 1, 1, 0, 1, -1, 0, -1, -1, -1, 1, 1, -1, -1, 0, 0, 0, 1, 1, 0, 0, -1, 0, 0, 1, 1, 1, 1, -1, 1, 1, 0, 1, 0, 1, 1, 0, 0, 1, 1, 0, -1, 1, 0, 1, 1, 1, 1, -1, 0, 1, -1, 1, 1, 1, -1, -1, -1, 1, 0, 0, -1, 0, 0, -1, -1, 1, -1, 0, 1, 1, -1, 0, 1, -1, 1, 0, 0, 1, 0, 0, 1, -1, -1, 1, 0, -1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, -1, -1, 1, 1, 0, 0, 0, 0, 0, -1, 1, 0, 1, 1, -1, -1, 0, 1, 0, -1, 1, -1, 1, 1, -1, 1, 1, 1, 1, 0, -1, -1, 0, 0, 1, 0, 1, 0, -1, 0, -1, 1, 1, 1, 1, -1, 0, 1, 1, -1, 0, 1, -1, 0, 0, 1, -1, 0, 1, 1, -1, 1, -1, 1, 1, 1, -1, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, -1, 1, -1, 0, 0, -1, 1, 0, 0, -1, 0, 1, -1, 1, 1, 0, 1, 1, 1, 1, -1, 1, 1, -1, -1, 0, -1, 1, 1, 1, 0, 0, 0, 1, 1, -1, 0, -1, -1, 1, 0, -1, 0, -1, 0, -1, -1, 0, 1, 0, -1, 1, 0, 0, 1, -1, -1, 0, 0, 1, -1, -1, -1, -1, 0, -1, 0, -1, 0, -1, 0, 1, 0, 1, -1, -1, 1, 0, -1, 0, 0, 1, 0, 1, -1, 0, 1, 0, 0, 0, 1, 0, 1, 1, -1, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, -1, 0, 1, 1, 0, 0, 0, 0, -1, 1, 1, -1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, -1, 1, 0, 0, 1, 1, 1, 0, -1, 0, 1, 0, -1, 1, 0, -1, -1, 0, 1, 1, 0, -1, -1, 0, 0, -1, -1, 0, -1, 1, 1, 0, 0, -1, -1, 1, -1, 1, -1, 1, -1, 1, -1, -1, 0, 1, 1, 0, 1, 1, -1, 0, 0, 0, 1, -1, 0, 1, 0, 0, 1, -1, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 1, 0, 1, -1, 0, 1, 1, 0, 1, 1, 1, 1, 1, 0, 1, -1, -1, -1, 0, 0, 1, 0, 1, 1, -1, -1, -1, -1, -1, 0, 0, 1, 1, -1, 0, 0, -1, -1, 1, 1, -1, 0, 0, -1, 1, 1, 0, -1, -1, 1, -1, 1, 1, -1, 1, 1, 0, 1, 1, 1, 1, 0, 0, -1, 1, 0, -1, 1, 1, 0, 1, 1, 1, 0, -1, 0, 1, 1, 1, 0, 0, 1, -1, 0, 0, 1, 0, 0, 1, 1, -1, 0, -1, 1, 0, 0, 1, 0, 1, -1, -1, 1, 1, -1, 0, 1, 1, 0, 1, 1, -1, 1, 1, 1, 1, -1, 1, -1, 1, 0, 1, -1, 0, -1, -1, 1, -1, 1, -1, 0, 1, 1, 0, -1, 1, 0, 0, 1, -1, 1, 0, 1, 1, 0, 1, 0, 0, -1, -1, -1, 1, -1, 0, 0, -1, 1, 1, 1, 1, 0, 1, 1, -1, -1, -1, -1, 1, 1, -1, 1, 0, 0, 1, -1, 0, -1, 0, -1, 1, 0, 1, -1, 0, 0, 1, -1, -1, 1, 1, 0, 0, 0, -1, -1, 1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, -1, -1, 0, 0, -1, 1, 0, 1, -1, 0, 1, -1, 1, 1, 0, 0, -1, 1, 0, 1, 0, -1, -1, 0, 1, 1, -1, 0, -1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, -1, 1, 0, 0, 1, 1, -1, 0, 0, -1, 0, 1, 0, 1, -1, 0, 1, 1, 1, -1, 0, 0, 0, 0, -1, 0, -1, -1, 1, 0, -1, -1, 1, -1, 0, -1, 0, -1, 0, 1, 0, 0, -1, -1, 1, -1, 0, 1, 1, 1, 0, 0, 1, 1, 0, 1, 0, 0, -1, 0, -1, -1, 1, 1, -1, 1, 1, 0, 1, 1, -1, 0, 1, 1, 1, -1, -1, 1, -1, -1, 0, 1, 1, 1, 0, -1, 0, -1, 1, -1, -1, 1, 0, -1, 0, 0, -1, 0, 0, 1, 1, 0, 1, 0, 1, 1, -1, 1, 1, 0, 0, 1, 1, -1, -1, 1, 0, 1, -1, 0, 1, 1, 0, 1, 1, 1, 1, 0, -1, 0, 1, 1, 1, -1, 0, 1, 0, -1, 0, -1, 1, 1, 0, 0, -1, -1, 1, -1, 0, -1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[-1, -1, 0, 0, -1, -1, 1, 1, -1, 1, -1, -1, 0, 1, 0, 0, 1, -1, -1, 0, 0, -1, 1, 1, 1, 0, 1, 0, -1, -1, 0, -1, 1, -1, 1, 1, 0, 1, 0, 1, 0, 0, -1, 1, 0, -1, -1, 1, -1, 0, -1, -1, -1, 0, 0, 0, 1, -1, -1, 1, 0, 1, 0, 1, 1, -1, 0, 0, -1, 1, 1, -1, 0, -1, -1, 1, 1, 1, 0, 1, -1, 0, 0, 1, 1, 1, -1, -1, 1, 1, 1, 1, -1, -1, 0, -1, 0, -1, 0, -1, 1, 0, 0, -1, 1, 0, -1, 0, 0, 1, -1, -1, -1, -1, -1, -1, -1, -1, 1, 1, 1, -1, 1, -1, -1, 0, 1, 1, 0, 1, -1, 1, 1, -1, -1, 1, -1, -1, 0, 1, 1, 1, 1, -1, 0, 1, 1, -1, 0, 0, -1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, -1, 1, -1, -1, -1, 0, -1, 0, 0, 1, 1, 1, 1, -1, -1, -1, 1, 1, -1, 1, 0, 1, -1, 0, 1, -1, -1, -1, 0, 0, -1, -1, -1, 1, 0, 0, -1, 1, 1, 0, 1, 1, 1, 1, 1, 1, -1, 0, 0, 0, 1, -1, -1, 0, -1, 1, -1, -1, 1, 0, 1, 1, 0, 0, -1, 1, 0, 1, 1, 1, 0, -1, 0, 1, 1, 1, -1, -1, 1, 1, 0, -1, -1, 0, 0, 1, -1, 1, 0, -1, -1, 0, 0, 0, 0, -1, 1, 0, 0, 1, 0, 1, 0, -1, -1, 0, 0, 1, -1, 0, 1, 1, -1, 0, 0, -1, 1, 1, 0, 0, 1, 1, -1, -1, 1, 1, 0, 1, -1, -1, -1, 0, 1, 0, 1, 1, 1, 1, 1, -1, -1, 1, 0, -1, 0, 1, 1, 1, 1, -1, 1, -1, -1, 1, -1, 0, 1, -1, 1, -1, 1, -1, 1, -1, -1, 0, 1, 0, 0, 1, 1, -1, -1, -1, 0, 1, 0, 0, 1, 1, 0, 1, 0, -1, -1, -1, -1, 1, -1, 1, -1, 1, -1, 0, 1, 1, 1, -1, -1, -1, -1, 1, 1, -1, 1, 0, -1, 0, 0, -1, 1, 1, -1, 0, 0, 1, 1, 0, -1, 1, 1, 1, 0, 0, 0, 0, -1, 0, 0, -1, 1, -1, -1, -1, 1, 1, 1, 0, 1, 1, 0, -1, -1, -1, 1, -1, 1, -1, 1, 1, 1, -1, 1, -1, 0, -1, -1, 1, 1, 1, -1, 1, 1, 1, 0, 0, 1, 0, -1, -1, -1, 1, 0, -1, 1, -1, 1, 1, 1, -1, 0, 0, -1, 1, 0, 1, 0, 0, 0, 0, -1, 1, 0, 1, 0, -1, 0, -1, -1, -1, 1, 1, -1, 0, -1, -1, -1, -1, 1, 0, 1, 1, 1, -1, 0, 1, 1, 1, -1, 1, 0, 1, 1, 1, -1, 1, 0, 1, -1, 1, 1, 1, 0, 0, 1, 0, -1, 1, 0, -1, 0, 0, 0, 1, -1, -1, 1, 1, -1, -1, 0, 0, -1, -1, 1, 1, -1, 0, 1, 0, 0, 0, -1, 0, -1, 1, 0, 0, -1, 0, 0, 1, 0, 1, -1, -1, -1, 0, 0, -1, -1, 0, -1, -1, 1, 1, -1, 1, 0, -1, -1, 0, 1, 1, 0, -1, -1, -1, -1, 1, 1, 0, 1, 0, 0, -1, 0, -1, -1, -1, 1, 1, 0, -1, 0, 1, 1, 1, -1, -1, 1, 1, -1, -1, 1, 1, -1, -1, 1, 1, -1, 1, 1, 0, -1, 1, -1, 1, -1, -1, -1, 1, 1, 1, -1, 1, 0, 1, -1, 0, -1, 0, -1, -1, 1, 0, 1, -1, 0, 1, 0, 1, -1, 1, 1, 1, 1, 1, 1, 0, -1, 0, 0, 1, -1, 1, 1, 1, -1, 1, 1, -1, 1, 1, 1, 1, 1, 0, -1, 1, -1, -1, 1, 0, -1, 0, 1, -1, 1, 1, -1, 0, -1, 1, 1, 1, 1, 1, -1, 1, -1, 0, 0, 0, -1, 1, 0, 0, 1, 1, -1, 1, -1, 0, 1, -1, 1, -1, 1, 0, 0, 0, -1, 1, 1, 1, 0, 0, 1, 0, -1, 1, 0, -1, -1, 0, -1, 1, 0, 1, -1, 0, -1, 0, -1, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 1, -1, 0, 1, -1, -1, -1, -1, -1, 1, 0, -1, 1, 0, -1, 0, 1, 0, 0, -1, 1, 0, 1, 0, 1, 1, -1, 1, 1, -1, 1, 0, 1, -1, 1, 0, -1, 1, -1, -1, 1, -1, 1, 0, 1, -1, 1, 0, -1, 1, -1, 1, -1, 1, 1, 1, 1, -1, 0, 0, -1, 0, 1, -1, 1, -1, 1, 1, 0, 1, 0, 1, 0, -1, -1, 1, 1, 0, 0, -1, -1, 1, 1, 0, 1, 1, -1, 0, 1, 1, -1, 0, -1, 0, -1, -1, -1, 0, 1, 1, 1, -1, 0, -1, 0, 1, -1, 0, -1, 1, 0, 0, 1, 1, 1, -1, 1, 1, -1, 0, 0, 1, 1, 0, 0, -1, 1, 0, 1, 1, 0, 0, 1, -1, 0, 1, 1, -1, 1, -1, 1, 1, 1, 0, 1, 1, 1, -1, -1, 1, -1, 1, -1, 1, -1, 1, 1, 1, 0, 0, -1, -1, 1, -1, 0, 1, 1, 0, 0, 1, 0, -1, 1, 1, 1, -1, 1, -1, 1, 1, 1, 1, -1, 1, -1, -1, 0, 0, -1, -1, 1, 0, 1, -1, -1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 0, -1, 0, 1, -1, -1, 1, -1, 0, 0, -1, 1, -1, 0, 0, 1, -1, 0, -1, 1, 1, 1, 1, 1, 0, 1, 0, -1, -1, 1, 1, 1, 1, 1, 0, 1, -1, -1, 1, 1, 1, 1, 0, 1, 0, -1, 0, 0, -1, 1, 0, 1, -1, 1, 1, 0, 1, 1, -1, 0, 1, -1, 0, 1, 1, 1, 1, -1, -1, -1, 1, 1, 0, 0, 1, -1, -1, -1, 0, -1, 1, 1, -1, 0, 1, 0, 0, -1, 0, 1, 0, 1, 1, -1, 1, 0, 1, 1, -1, 0, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 1, -1, -1, 1, 0, 0, 1, -1, -1, 1, 1, 1, 0, -1, 1, 1, -1, 0, -1, -1, 1, 0, 0, -1, -1, 1, 1, 0, 1, 1, -1, 1, 1, -1, -1, 1, 1, 0, 1, 1, -1, 0, 1, 1, -1, -1, 0, 1, -1, 0, -1, 1, 1, -1, 1, 1, 0, 0, 1, 0, -1, 1, 1, 0, 1, -1, 1, -1, 0, 0, 1, 1, 1, 1, -1, 0, -1, 0, 1, 1, 1, 0, 0, 1, -1, 1, -1, -1, 0, -1, -1]</t>
+  </si>
+  <si>
+    <t>[-1, -1, 0, 1, -1, -1, 0, 0, -1, 0, -1, -1, 1, 1, 0, 1, 1, -1, 0, 0, 0, -1, 1, 1, 1, 1, 1, 0, -1, -1, 0, -1, 1, 0, 0, 1, 0, 1, 0, 1, 0, -1, -1, -1, -1, -1, -1, 1, -1, 0, -1, 1, -1, 0, -1, 1, 0, -1, 0, 1, 0, 1, 0, 1, 1, -1, 1, 0, -1, 1, 1, -1, 0, -1, 0, 1, 1, 1, 1, 1, -1, 1, 0, 1, 1, 1, -1, 0, 1, 1, 0, 1, -1, -1, 1, 0, 1, -1, 0, -1, 1, 0, 0, 0, -1, 0, -1, 1, 1, 1, -1, 0, -1, -1, -1, -1, -1, -1, 1, 1, 0, -1, 1, 0, -1, -1, 1, 1, 1, 1, -1, -1, 1, -1, 1, 1, -1, 0, 1, 1, 1, 1, 1, 0, 0, 1, 1, -1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, -1, 1, 1, -1, -1, 0, -1, 0, 1, 1, 1, 1, 1, -1, -1, -1, 1, 1, -1, 1, 0, 1, -1, 0, 0, -1, -1, -1, 1, 0, 0, -1, -1, 1, 1, 0, -1, 1, 0, 0, 1, -1, 1, 1, 1, -1, -1, -1, -1, -1, 1, -1, 1, 0, -1, 1, -1, -1, 0, 0, 1, 1, 0, 0, -1, 1, 1, 1, 1, 1, 1, -1, 1, 1, 1, 1, -1, -1, 1, 0, 0, -1, -1, 0, -1, 1, -1, 1, 0, 1, -1, 0, 1, 0, 0, -1, 1, 1, 0, 0, -1, 1, 0, -1, -1, 1, 1, 1, -1, 0, 1, 0, -1, 0, 1, -1, 1, 1, 1, 1, 1, 1, -1, -1, 1, 0, -1, 0, -1, -1, 1, 0, 1, 0, 1, 1, 1, 1, 1, -1, -1, 1, 0, -1, 1, 1, 1, 1, 1, -1, 1, -1, 0, 1, -1, 1, 1, -1, -1, -1, 1, -1, 0, -1, -1, 1, 0, 1, 1, 0, -1, -1, -1, -1, 1, 1, 0, 0, 1, 1, 0, 1, -1, -1, -1, 1, -1, 1, -1, 1, -1, 1, 0, -1, 0, 0, 1, 1, -1, -1, -1, 1, 1, -1, 1, -1, -1, -1, -1, -1, 1, 0, -1, 0, -1, 1, 1, 1, 1, 1, -1, 1, 0, -1, 1, -1, -1, 0, 1, -1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 0, 1, -1, -1, -1, 0, -1, 1, -1, 1, 1, 1, -1, 1, -1, -1, -1, 1, 1, 1, 1, -1, 1, 1, -1, -1, -1, 0, 0, 0, -1, -1, -1, 0, -1, 1, 0, -1, 1, 0, -1, 0, 0, -1, -1, 1, 1, -1, 0, 0, 1, -1, 1, 0, 0, 1, 0, 0, 1, -1, -1, 1, 1, -1, -1, -1, -1, -1, 1, 1, 1, 1, 1, 1, -1, 0, 1, -1, 1, -1, 0, 0, -1, 1, 1, -1, 1, 0, 1, -1, -1, 1, 1, 0, 0, 1, 0, -1, 1, 0, -1, -1, -1, 0, 0, -1, -1, 1, 1, -1, -1, 0, 1, -1, -1, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, -1, 1, 0, 0, -1, -1, 0, 1, 1, 0, -1, -1, -1, 1, 1, -1, -1, -1, -1, -1, 0, 1, -1, 1, 0, -1, -1, 0, 1, 0, 0, -1, -1, -1, 0, 1, 1, 0, 1, 0, 1, 0, 0, -1, 0, -1, 1, 1, 0, -1, 0, 1, 1, 0, -1, -1, 1, 1, -1, -1, 1, 1, 0, -1, 0, 1, -1, 1, 1, 1, -1, 1, -1, 0, -1, -1, -1, 1, 1, 1, 1, 1, -1, 1, -1, 0, -1, 0, -1, -1, 0, 0, 1, -1, 0, -1, 0, 1, -1, 1, -1, 1, 0, 1, -1, 0, -1, 0, 1, 1, -1, 1, -1, 1, -1, -1, 0, 0, 0, 1, 0, 1, 1, -1, -1, 0, -1, 1, 1, 0, -1, -1, 1, -1, 1, 1, -1, -1, 0, 1, 1, 1, -1, 1, -1, -1, -1, -1, 1, 1, -1, 1, 0, 1, 1, 0, -1, 0, -1, 0, -1, -1, 0, 0, 1, 1, 0, 0, -1, 1, 1, 0, 0, 1, 1, 0, 1, 1, -1, -1, -1, 1, -1, 0, 0, 1, -1, 1, -1, 1, -1, -1, 1, 1, 1, 1, 0, -1, -1, -1, -1, 1, -1, -1, -1, -1, -1, 1, 1, -1, 1, -1, 0, -1, 0, 1, -1, -1, -1, -1, -1, 1, 0, -1, 1, 0, 1, 0, 1, 0, 0, -1, 1, 1, 0, 1, 1, 1, -1, 1, 1, -1, 1, 1, 1, -1, 0, 0, 0, 1, -1, -1, 1, 0, 1, -1, 1, -1, 1, 0, 0, 1, -1, 1, -1, 1, -1, 1, 1, -1, 0, 1, -1, 1, 1, -1, 1, 0, 1, 1, -1, 1, 1, 1, 1, -1, -1, 1, 1, 0, 1, -1, -1, 1, 1, 0, 1, 1, -1, 0, 1, 0, -1, 0, 0, -1, 0, -1, 0, 0, 1, 1, 1, 0, 0, -1, 0, 1, 0, 0, 0, 1, -1, 0, 1, 1, 0, -1, 1, 0, -1, 1, 1, 1, 1, 1, 0, 0, 1, -1, 1, 1, 0, 0, 1, -1, -1, 1, 1, -1, 1, -1, 1, 1, 1, 0, 1, -1, 1, -1, -1, -1, 0, 1, -1, 1, -1, 1, 0, 1, -1, 0, -1, -1, 1, -1, -1, -1, 1, 0, -1, 1, 0, -1, 0, 1, 1, 0, 1, -1, 1, 1, 1, 1, -1, 1, 1, -1, 0, 1, -1, -1, 1, 0, 1, -1, 0, 1, 1, 1, 0, 1, 1, 0, 1, 0, 0, 1, -1, -1, -1, 1, -1, -1, 1, -1, 1, 0, 0, 1, 1, 1, 1, 1, -1, 0, -1, -1, 0, 1, 1, 1, 0, 0, 1, -1, -1, 1, 1, 1, 1, 1, 0, 1, -1, -1, -1, 1, 1, 1, 1, 1, -1, 1, 0, 1, -1, 1, 1, 1, -1, 1, 1, 0, 1, 0, -1, 0, 1, 1, -1, 1, 1, 1, -1, -1, 1, -1, 1, 1, 0, -1, 1, 1, -1, -1, 1, -1, 1, -1, -1, -1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 0, 0, -1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, -1, 0, 1, -1, -1, 1, 0, 1, 1, 0, -1, 1, 1, 1, 0, 1, 1, 1, -1, 1, -1, -1, 1, 1, 0, -1, -1, 1, 1, 0, 1, 1, -1, 1, 1, -1, 0, 1, 0, 0, 0, 0, -1, 0, 0, 1, -1, -1, 0, 0, 0, 0, -1, 1, 1, -1, 1, 1, 0, 1, 1, 1, -1, 1, 1, -1, 1, -1, 1, 0, -1, -1, 1, 1, -1, 1, -1, 1, -1, 1, 1, 0, 0, 1, 0, -1, 0, 1, 1, -1, 0, -1, -1]</t>
+  </si>
+  <si>
+    <t>[1, -1, 0, -1, 1, 1, 0, 1, 1, 0, 1, -1, 1, -1, 0, 0, 1, -1, 1, -1, -1, 0, -1, 0, -1, 0, -1, -1, -1, 1, 1, -1, -1, 1, 1, 1, 1, -1, 1, 1, -1, 0, 1, 1, 0, 0, 1, 0, 1, -1, 0, 1, 1, 1, 1, 0, -1, 0, 0, 1, 0, 1, -1, 1, 1, -1, 1, 0, 1, 0, 1, -1, 0, 0, -1, 1, -1, -1, -1, 1, 1, 0, 0, -1, -1, 1, -1, -1, -1, -1, 1, 1, 1, 1, 1, 0, -1, -1, -1, 0, -1, -1, 1, 1, 1, -1, 1, 0, 1, -1, 0, 1, -1, 1, 1, -1, 1, -1, 1, 1, 1, 1, -1, 1, 1, 0, -1, 1, -1, 1, 1, -1, -1, 0, -1, 1, 0, 1, 0, 1, -1, 0, -1, 0, 0, 0, -1, 0, -1, 1, 1, 0, 0, 0, -1, -1, 0, -1, -1, -1, 0, 0, 1, 1, 1, -1, 1, 1, 0, 1, 1, 0, -1, 1, 1, 1, 1, -1, 1, 1, 0, 0, -1, 1, 0, 0, -1, -1, 1, 1, -1, -1, -1, 1, 1, 1, -1, -1, 0, 0, 0, 1, -1, -1, 1, 1, -1, -1, 1, -1, 0, -1, 1, 1, 1, -1, 1, 0, 1, 1, 0, -1, -1, -1, 1, 0, -1, -1, 0, 0, -1, 1, 1, -1, 1, 1, 0, 1, 1, 0, 1, -1, 1, -1, 0, 1, 1, 0, -1, 0, 1, -1, 0, 1, -1, 1, -1, 1, -1, -1, 1, 0, 1, 1, -1, 0, 1, 0, -1, 1, 0, 1, 1, 0, -1, -1, 1, -1, 0, 0, 1, -1, 0, 1, 1, 1, 1, -1, -1, 0, 1, 0, 1, -1, 1, -1, 0, 0, 0, -1, -1, -1, 1, 1, 0, 0, 1, -1, 1, 1, 0, -1, 0, 0, 1, 1, -1, -1, 1, -1, 0, -1, -1, 0, 1, -1, 1, 0, 0, -1, 0, 1, 1, -1, -1, 1, 0, 1, 1, 0, -1, -1, 0, 1, -1, -1, 1, -1, -1, 0, 1, -1, 0, -1, 1, -1, 1, 0, 1, -1, 1, 1, 0, -1, 0, 0, 0, 1, 1, -1, -1, -1, -1, 0, 1, 0, -1, 1, -1, 0, 0, 1, 1, 0, 1, 1, 1, 1, 0, -1, -1, -1, 1, -1, 1, 0, 0, 1, -1, 1, -1, 0, -1, -1, -1, 1, 1, 0, -1, 1, 0, -1, 1, 0, 1, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 1, 1, 1, -1, 1, 1, 0, 0, -1, 0, 1, 1, 0, 1, 0, 0, 1, 1, 1, -1, -1, 0, 0, -1, -1, 0, 0, 0, 1, 1, 0, -1, 0, 1, 0, 1, 1, -1, 0, 1, 0, 1, 0, 1, -1, 1, -1, -1, -1, 1, 0, -1, 0, -1, -1, 1, 1, 0, 1, -1, -1, -1, -1, -1, -1, 1, 1, -1, 1, 0, -1, 1, -1, -1, 0, -1, 0, -1, -1, 0, -1, -1, 0, -1, 0, 1, 1, 1, 0, 1, -1, 1, 0, -1, -1, 0, -1, -1, 0, -1, 1, -1, -1, 0, -1, -1, 0, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 0, 1, 1, 0, 1, -1, -1, 1, 1, 0, 0, -1, 1, 1, 1, 0, 0, -1, 0, 1, 1, 0, -1, -1, 1, 1, 0, 0, 0, -1, -1, -1, 1, 0, -1, 0, -1, 0, -1, 1, 1, 0, -1, 0, 0, 1, -1, 1, -1, -1, -1, 0, -1, 0, 0, -1, 1, -1, 0, 1, -1, 0, -1, 1, -1, -1, 1, 0, -1, 1, 1, 1, -1, 1, 1, -1, 1, 1, 0, 1, 1, 0, -1, 0, -1, -1, -1, 1, 1, 1, -1, -1, 1, -1, 0, 1, 1, 1, 0, 1, -1, 1, 1, 1, 1, 0, 1, 0, 1, 0, -1, -1, 0, 1, 1, 0, 0, -1, 0, -1, -1, -1, 0, 1, -1, 1, 0, 1, 1, 1, 1, 1, -1, 0, -1, 0, 1, -1, -1, -1, -1, 0, -1, 0, 0, 1, -1, -1, -1, 0, 0, 0, -1, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, -1, 0, 1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 0, 1, -1, 1, 1, 0, 0, -1, -1, -1, 1, 1, 1, -1, -1, -1, -1, 1, 1, 0, 1, 0, 1, 1, -1, -1, 1, 1, 1, -1, 1, 1, 0, -1, 1, 0, 0, -1, -1, 1, 0, 1, -1, 0, -1, 1, -1, 0, 1, -1, 1, -1, 1, 1, 1, -1, -1, -1, 1, 0, 1, 1, -1, 1, -1, -1, 0, 0, 1, 1, -1, 1, 0, 0, 1, 1, -1, 1, 0, -1, 1, -1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 1, 1, -1, 1, 0, -1, -1, 1, 1, 1, 0, 1, 0, 1, 1, 0, 1, -1, 1, 0, -1, 0, 1, -1, -1, 1, 1, 1, -1, 1, 0, -1, 0, -1, 1, -1, 1, 0, -1, -1, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, -1, -1, 0, 0, -1, 1, 0, 1, 1, 0, -1, 1, 1, 1, 1, 1, 1, 1, -1, -1, 0, -1, 0, -1, -1, 1, 1, 1, -1, -1, 1, -1, 1, 1, 0, -1, -1, 1, 0, -1, -1, 1, 1, 1, -1, 0, 0, 1, 1, 1, 1, 1, 0, -1, 1, 0, -1, -1, 1, 0, 0, 1, 0, 1, -1, 1, 1, 0, 0, -1, 0, 1, 0, 0, 1, 1, 1, -1, 1, 1, 1, -1, 0, -1, 0, 0, 1, -1, 1, -1, 0, 1, 0, 1, -1, -1, -1, -1, 1, 1, 0, 1, 0, 1, -1, 1, 1, 0, 1, 0, 1, -1, 1, 1, -1, -1, 1, 0, 1, 1, -1, 1, -1, -1, -1, 1, -1, -1, 0, -1, -1, 0, -1, 0, -1, 1, 0, 1, -1, 1, -1, -1, -1, 1, 0, 1, -1, 0, 1, -1, 1, -1, 1, 1, 1, -1, 1, 1, 1, 1, -1, 0, 1, -1, -1, -1, 0, 1, -1, -1, 1, -1, -1, 1, 0, 1, 0, -1, 1, 0, 1, -1, 0, -1, 1, -1, 1, 1, 1, 0, -1, 1, 1, 1, 1, -1, -1, 1, 1, 0, -1, 1, 1, -1, 1, -1, 0, 1, 1, 0, 1, 1, -1, 1, -1, 1, -1, 1, -1, -1, 1, 1, 0, 0, -1, -1, -1, 1, 1, 1, 1, -1, 0, 0, -1, 0, 1, 0, 0, -1, -1, 1, 0, -1, 1, -1, -1, -1, -1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, -1, -1, 1, 0, 0, 1, 0, -1, 0, 0, 1, 0, 0, 0, 1, 0, -1, -1, 1]</t>
+  </si>
+  <si>
+    <t>[0, -1, 1, -1, 0, 1, 0, 1, 1, 0, 1, -1, 1, -1, -1, 0, 1, -1, 0, -1, -1, 0, 0, 0, -1, 0, -1, 0, -1, 1, 1, -1, -1, 1, 1, 0, 1, -1, 1, 1, -1, -1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 1, 1, 1, 0, -1, -1, 0, 1, -1, -1, -1, 0, 1, 0, -1, 0, 1, -1, 1, -1, 0, 0, -1, 0, -1, -1, -1, 1, 1, 1, 0, -1, -1, 0, -1, -1, -1, -1, 0, 1, 1, 1, 1, 1, -1, -1, -1, 0, -1, -1, 1, 1, 1, -1, 1, 0, 1, 0, -1, 1, -1, 1, 1, -1, 1, 0, 1, 1, 1, 1, -1, 1, 0, -1, -1, 1, -1, 1, 1, -1, -1, 0, -1, 1, 0, 1, 1, 1, 1, 1, -1, 0, 1, 1, -1, 1, -1, 1, 0, 0, 1, 1, -1, 1, 1, -1, -1, -1, 0, -1, 1, 0, 1, -1, 1, 1, 0, 1, 1, 1, -1, 1, 0, 1, 1, -1, 1, 0, -1, 0, 0, 1, 0, 0, -1, -1, 1, 0, -1, -1, -1, 1, 1, 1, -1, -1, 0, -1, -1, 1, -1, -1, 1, 1, -1, 1, 1, -1, 1, -1, 1, 0, 0, -1, 1, 0, 1, 1, 0, 1, -1, -1, 1, 1, 1, -1, -1, 1, 1, 1, 1, -1, 0, -1, 0, 1, 1, 1, 1, -1, 1, -1, -1, 0, 1, 1, -1, 0, 0, -1, 1, 1, -1, 1, -1, -1, -1, 0, 1, 0, 1, 1, -1, 0, 1, -1, -1, 0, -1, 1, 1, -1, 0, -1, 1, -1, 0, 0, 1, -1, 0, 1, 1, 1, 1, -1, 0, 1, 1, 0, 1, -1, 1, -1, 0, 0, 1, -1, -1, -1, 1, 1, -1, 0, -1, -1, 1, 1, 0, 1, 0, 1, 1, 1, -1, -1, -1, -1, 0, 1, -1, 0, -1, 1, 1, 1, 0, -1, -1, 1, 1, 0, 1, -1, 1, 1, -1, 0, -1, -1, 1, 1, 0, -1, 0, -1, -1, -1, 1, -1, -1, -1, 1, -1, 1, 0, 1, 1, 1, 1, 1, -1, 0, -1, 1, 1, 1, -1, -1, 1, 0, 0, 1, 0, -1, 0, 1, 0, 0, 1, 1, 0, 1, 1, 1, 1, 0, -1, -1, 0, -1, 1, 0, 1, -1, 1, -1, 1, -1, 0, 1, -1, -1, 0, 1, -1, -1, 1, -1, -1, 1, 0, 1, 0, 1, 1, -1, 0, 0, 1, 1, 0, 1, 1, 1, 1, -1, -1, 0, 0, 0, -1, -1, 1, 1, 0, 0, 0, 0, 1, 1, 1, 0, 0, -1, 0, 1, -1, 1, 1, 0, 1, 1, 0, 1, -1, 1, 0, 1, 1, 0, 1, -1, 0, 1, 1, 1, -1, 1, 1, -1, -1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, -1, -1, -1, -1, -1, 1, 0, 1, -1, 1, -1, -1, 0, -1, -1, 0, -1, 1, -1, -1, 0, -1, -1, -1, 0, 1, 1, 1, 1, 1, 1, -1, -1, 1, -1, -1, 0, 0, -1, 0, -1, 0, -1, -1, 1, -1, -1, 1, 0, 1, 1, 1, 1, -1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 1, -1, 1, 1, 0, 0, -1, 1, 1, 1, 0, -1, -1, 1, 1, 0, 1, -1, -1, 1, -1, 0, 1, 0, -1, -1, -1, 1, 0, -1, 1, 1, 0, 1, 1, 1, 1, -1, 1, 1, 1, -1, 1, -1, -1, 1, 1, -1, 0, 0, -1, 1, -1, 0, 1, 1, 0, -1, 1, -1, -1, 1, 1, -1, 0, 1, 1, -1, 1, 1, -1, 1, 1, 1, 1, 0, 0, -1, -1, -1, 0, -1, 1, 1, 1, -1, -1, 0, 1, 0, 1, 1, 1, 0, 1, -1, 1, 1, 1, 1, -1, 1, 0, 1, -1, -1, -1, 0, -1, 1, -1, -1, -1, 1, 0, -1, -1, -1, 1, -1, -1, 0, 1, 1, 1, 1, 1, -1, -1, -1, -1, 1, -1, -1, -1, 0, 1, -1, -1, 0, 0, -1, -1, 1, 0, 0, -1, -1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 0, 0, 1, 0, -1, 0, 0, 1, 1, 1, 0, -1, 0, 1, 1, 1, -1, -1, -1, 1, 1, 0, 1, -1, -1, -1, 1, 0, 0, -1, -1, -1, -1, 1, 0, 1, 1, 0, 1, 1, -1, -1, 0, 1, 1, -1, 1, 1, 0, -1, 1, 1, 0, -1, 0, 1, 1, 1, -1, 0, -1, 0, -1, 0, 1, -1, 1, -1, 1, 1, 1, -1, -1, 0, 1, 0, -1, 1, 0, -1, -1, -1, 1, 0, 1, 1, -1, 1, 1, 0, 1, 0, -1, 0, -1, 1, 1, -1, 1, 0, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, -1, 0, 0, -1, -1, 0, -1, 0, 0, 1, 0, -1, 1, 0, 1, -1, 1, 1, -1, 0, -1, -1, 0, 1, 1, 0, -1, 0, -1, -1, 0, -1, 1, 1, -1, 1, -1, -1, 0, 0, -1, 1, 1, 0, 1, 1, -1, 1, 0, 1, -1, -1, 0, -1, -1, 0, 0, 1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 1, -1, -1, 0, -1, 0, -1, -1, 1, 1, 1, 1, -1, 1, -1, 1, 0, -1, -1, -1, 0, 0, -1, -1, 1, 1, 1, -1, 1, 0, -1, 1, 1, -1, 1, 1, -1, 1, 0, -1, -1, 1, 0, 1, 1, 0, 1, -1, -1, 1, 0, 0, -1, 0, 1, 0, 0, -1, 1, 1, -1, 1, 1, 1, -1, 1, -1, -1, 0, 1, -1, 1, -1, 0, 1, 0, 1, -1, -1, 1, 1, 1, -1, 0, 1, 1, 1, 0, 1, 1, 0, 1, 0, 1, -1, -1, 1, -1, -1, 1, 0, 1, 1, 1, 0, -1, -1, -1, 1, -1, 0, 1, 1, -1, 0, 0, 1, -1, 1, -1, 1, -1, 1, 0, -1, 1, 1, -1, 1, -1, 0, 0, -1, 1, -1, 1, 1, 1, -1, 1, 1, 1, 1, -1, 0, 1, -1, -1, 1, 0, 1, 0, -1, 1, -1, -1, 1, 0, 1, 1, -1, 1, 0, 1, 0, 1, -1, 1, -1, 1, 0, 1, 1, -1, 1, 1, 1, 1, -1, 0, 1, 0, 1, -1, 1, 0, -1, -1, -1, 1, 0, 1, 0, 1, 1, 0, 1, -1, -1, -1, 1, 0, -1, 1, 1, 1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 0, 1, 0, 1, 1, 0, 0, 1, -1, 1, 1, -1, 1, -1, -1, 1, -1, 1, 1, 0, -1, 1, 0, 1, -1, 1, -1, 1, 1, 0, 1, -1, 0, 0, 0, 1, 0, -1, 0, -1, 1, -1, 1, 0, 0, 1, 0, 1, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, -1, 0, 0, -1, 0, 1, 1, 0, -1, 1, 0, 0, 0, -1, -1, 1, -1, 1, -1, 1, 1, 1, -1, -1, 1, 1, 0, 0, 0, 0, -1, -1, -1, 1, 0, -1, -1, -1, -1, 0, 1, -1, -1, 0, 1, 1, -1, 1, 1, -1, -1, -1, 0, 1, 1, -1, 1, -1, 1, -1, -1, 1, 0, -1, -1, -1, -1, 0, -1, -1, 0, 0, -1, 1, -1, -1, 1, 1, -1, -1, 1, 0, 1, 1, 1, 1, 0, 0, -1, 1, -1, 1, -1, -1, -1, 0, 1, 1, -1, 0, 1, -1, 1, 0, 1, 1, 1, -1, 0, -1, -1, 1, 0, 0, 1, -1, -1, 0, -1, 1, 0, -1, -1, 1, 1, 0, 1, 0, -1, 1, 0, 1, -1, 1, 0, -1, 1, 0, 0, -1, 0, 1, 0, 1, 1, 1, 1, -1, -1, -1, 1, 1, 1, -1, 1, 0, 0, 1, 1, -1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, -1, 1, 0, 0, -1, 1, 1, -1, -1, 0, 0, 0, -1, -1, -1, -1, 1, -1, -1, 0, 0, 1, 1, 1, 1, -1, 1, 1, 1, -1, -1, 1, -1, 1, 0, 0, 1, 1, -1, -1, 1, 1, 0, 1, 0, -1, 0, 0, 0, 1, -1, 0, 0, -1, 1, 1, 1, -1, -1, -1, -1, -1, -1, 1, 1, -1, 1, 1, -1, 1, 0, 1, -1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 0, 1, 0, -1, -1, -1, -1, 1, 1, -1, -1, -1, 1, -1, -1, 1, 0, 1, 0, 1, 1, 0, 0, 1, 1, -1, 1, -1, -1, 1, -1, 0, 1, 0, 0, -1, 1, 0, 0, 0, 1, -1, 1, -1, 0, -1, -1, 1, 1, 0, 1, -1, -1, -1, -1, -1, 1, 1, 0, 1, -1, 0, -1, 1, 0, 0, -1, 1, 0, 0, -1, -1, -1, 1, -1, 0, 1, 1, 0, -1, -1, 0, 1, 1, 0, -1, 1, 1, 1, 0, 1, 1, 1, -1, 1, 1, 0, 1, -1, -1, -1, 0, 1, 0, 1, 1, 1, -1, 0, 0, -1, 0, -1, -1, 1, 0, 1, 1, 1, 0, 0, -1, -1, 1, 1, -1, -1, -1, 1, -1, -1, 1, -1, 0, 0, 1, 1, 0, 1, 0, -1, 0, 1, 1, -1, 1, 1, 1, 0, -1, 1, 1, 1, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, -1, 1, 1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 0, 0, 0, -1, 1, 1, 0, 1, 0, -1, 1, -1, 1, 1, 1, 1, -1, 1, -1, 0, 1, 1, -1, 1, 1, 0, 1, 0, 1, 1, -1, -1, 1, 0, 0, 1, -1, -1, 1, -1, 0, 1, 0, 1, -1, 0, -1, 0, 0, 1, 1, 1, 0, 1, 1, -1, 1, -1, 0, 1, 0, 1, -1, 0, -1, 1, 1, 1, 0, 1, -1, 0, 1, 0, -1, -1, -1, 1, 1, -1, 1, 1, 1, 0, 1, 1, -1, 1, 1, -1, 1, 1, 1, 1, 1, 1, -1, 1, 1, 0, 1, 1, -1, 0, 1, -1, -1, 1, 0, -1, 1, 1, 0, 1, -1, -1, 1, 0, 0, 0, 0, -1, 1, 0, 1, 0, 1, 1, -1, 1, 1, 1, 0, 1, 1, 0, -1, 1, 1, 1, 0, 1, 1, 0, 0, -1, 0, 1, 1, 0, -1, 0, 1, -1, 0, 0, 0, 1, -1, -1, 1, 1, 1, 0, -1, 1, -1, 0, -1, 1, 1, 1, -1, 0, -1, 1, -1, 0, 1, 1, -1, 0, 1, -1, -1, -1, 1, -1, -1, -1, 1, 0, 1, 1, 1, -1, 1, 0, 1, 1, 0, -1, 1, 1, 0, 0, 1, 0, -1, 0, -1, -1, -1, 1, 1, 0, 1, -1, 0, -1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 1, -1, 0, 1, 1, 0, 0, 0, 1, 1, 1, 1, 0, -1, -1, -1, -1, 0, -1, 1, 1, 1, 1, 0, 1, 0, 1, 0, -1, 1, 0, 1, 1, 1, -1, -1, 0, 1, -1, -1, 1, -1, 0, 0, -1, -1, 1, -1, -1, 0, 0, -1, 1, 1, -1, 1, -1, -1, -1, 0, 0, 0, 1, -1, 1, 1, 1, -1, 0, -1, 0, -1, -1, 1, -1, 1, 1, -1, 0, -1, -1, 1, 1, 0, -1, 0, 1, -1, 0, 0, 0, -1, -1, 0, 0, -1, -1, -1, 1, -1, 1, -1, -1, 0, 1, 1, -1, 0, 1, 0, 0, -1, 1, 1, 0, -1, 0, 0, -1, 0, -1, 1, 1, 1, 1, -1, 1, -1, -1, 0, 0, -1, -1, -1, 1, 1, -1, -1, 0, 1, -1, 1, 0, -1, -1, 1, 0, 0, -1, 1, 0, -1, 0, 1, 0, -1, -1, 1, 1, 0, 0, 1, 1, 0, -1, 1, 1, 1, 1, -1, 1, -1, -1, 0, -1, -1, 1, 1, -1, -1, -1, 1, 1, -1, 0, -1, -1, -1, 0, -1, 1, -1, 1, 1, -1, 0, 0, 1, -1, 1, -1, 0, -1, 1, 0, 1, 1, 1, 1, 1, -1, 0, 0, 0, 1, 1, 1, -1, 0, 0, -1, 1, -1, 1, 0, 1, -1, -1, 0, 0, -1, 1, 1, 0, 1, 0, -1, 0, 1, 0, 0, 1, -1, 1, 1, -1, 1, 1, 1, 1, -1, 1, -1, 0, -1, -1, -1, 1, 0, -1, 1, 0, -1, -1, 0, 1, 1, 1, -1, 1, 1, 0, -1, 0, 1, 1, 0, 1, 1, 1, 1, -1, 0, -1, 0, 0, 1, 1, -1, 0, 1, 1, 1, -1, -1, 1, -1, 1, -1, 1, 0, 0, -1, -1, 1, -1, 1, -1, -1, 1, -1, 0, 0, 0, 1, 1, 1, 1, 1, -1, -1, 0, -1, 1, 0, 0, 0, 1, -1, 0, 1, -1, 1, 1, 0, 0, 1, 1, 1, 1, 1, 0, 1, -1, 1, 1, 1, 0, 0, -1, -1, 1, 1, 1, -1, 1, -1, -1, 1, -1, 1, -1, -1, -1, 0, 1, 1, 1, 1, 1, 1, 0, -1, 1, -1, -1, 1, -1, -1, 0, 0, 1, 0, -1, 0, 1, -1, 1, 1, 0, 0, 0, 1, 0, -1, 0, 0, 0, 0, -1, -1, 1, 1, 0, -1, 0, -1, 0, -1, 1, 1, -1, 0, -1, 0, 1, 1, -1, -1, -1, 0, 1, 1, 0, 1, -1, 0, 1, 0, 1, -1, -1, 1, 0, 0, 1, 1, -1, 1, 1, 0, 0, 0, 0, 1, -1, -1, 1, -1, -1, -1, 1, 1, -1, 1, -1, 0, 0, 0, 1, 1, 1, 1, 1, 1, 0, 1, -1, 1, 1, 1, 0, 1, -1, -1, -1, 1, -1, -1, -1, -1, -1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 1, 1, -1, 1, 0, -1, -1, 1, 0, 1, -1, 1, 0, 0, 0, -1, -1, 1, -1, 1, -1, 1, 1, 1, -1, -1, 1, 1, 1, 0, 1, 1, 0, 1, -1, 1, 0, -1, 0, 1, -1, -1, 1, -1, -1, 0, 1, -1, -1, 0, 1, -1, -1, -1, 0, 0, 1, -1, 1, -1, 1, -1, -1, 0, 0, 0, -1, 0, -1, 1, -1, 0, 0, 1, -1, 1, 0, -1, 1, 1, -1, -1, 1, 1, 0, 1, 0, 1, 0, 1, -1, 1, -1, 1, -1, 0, -1, 1, 1, 1, 0, 1, 1, -1, 1, -1, 1, 1, 1, -1, 0, -1, -1, 1, 1, -1, -1, -1, 0, 0, 0, 1, 0, -1, 1, 0, 0, 1, 1, 0, -1, 1, 1, 1, 0, 1, 0, 1, 1, 0, 1, 0, 0, 1, -1, 0, 1, 1, 0, -1, 0, -1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, -1, 1, 1, 0, 1, 1, 1, -1, -1, 1, 0, 1, -1, -1, -1, 0, 1, -1, -1, 0, 0, 1, 1, 0, 1, -1, 0, 1, 0, -1, -1, 1, -1, -1, 0, 1, 1, 1, -1, -1, 1, 0, 1, 1, 1, -1, 1, 1, 0, 0, -1, 0, 0, 0, 1, 1, 1, 0, -1, -1, 0, 0, -1, 1, 1, 0, 1, 1, -1, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 0, 1, -1, 1, -1, -1, -1, 1, 1, -1, -1, 1, -1, 1, 1, 0, 0, 1, 0, 1, -1, 0, 1, 1, 1, 0, 1, -1, 1, 0, -1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, -1, 1, -1, 0, 1, -1, 1, 1, 1, 1, -1, -1, -1, -1, -1, 1, 0, 0, 1, -1, 0, 0, 1, 0, -1, 0, 1, 1, 0, -1, -1, -1, 1, 1, 1, 0, 0, 1, 0, -1, 1, 1, 1, 0, 1, 1, -1, 1, 0, 1, 1, 1, 0, 1, 1, 0, 1, -1, -1, 0, 1, 1, 0, 1, 0, 1, -1, 0, -1, -1, -1, -1, -1, 1, 1, 1, 1, 1, -1, 0, 1, -1, 0, 1, -1, 0, 0, 1, -1, -1, 0, -1, 1, 1, 1, -1, 1, 1, -1, -1, -1, 1, 1, 1, 1, 1, 1, 1, -1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 0, -1, 1, 1, 0, -1, 0, 0, 0, 1, 0, 1, -1, 1, 0, -1, -1, 1, 1, 0, -1, 1, -1, 1, 0, 1, 1, 1, 1, -1, 0, -1, 0, 1, 1, -1, 1, 1, 1, 0, 0, -1, 1, -1, 1, 0, 0, 0, 1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 0, -1, 1, 1, 1, 1, 0, 0, 1, 1, -1, 1, 1, 0, 1, 0, 0, -1, 0, -1, 1, 0, 1, 0, 1, -1, 0, 1, -1, 0, -1, -1, 1, -1, -1, 0, 1, -1, 1, 1, 1, -1, 0, 1, -1, 1, 1, 1, 1, 0, 1, -1, 0, 1, 1, 1, 1, -1, 0, 1, -1, -1, 1, 1, -1, 1, -1, 1, 1, -1, -1, 1, 0, 1, 1, -1, -1, 1, 0, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 1, -1, -1, 0, 0, -1, 1, -1, 1, 1, -1, -1, 1, -1, 1, -1, -1, 1, 0, 0, -1, 1, -1, 1, -1, 1, 1, 1, -1, -1, 1, 1, 1, 0, 1, -1, -1, -1, 1, -1, 0, -1, 1, -1, 1, 1, 1, 0, 1, 1, 1, 1, 0, -1, 1, 1, 0, 0, 0, 1, -1, 0, -1, -1, -1, 1, 1, 1, 1, -1, 0, -1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, -1, 1, -1, 1, 1, 1, 0, 1, 1, 0, 1, 0, -1, -1, 0, -1, -1, -1, 1, 0, 1, 1, -1, 1, 0, 1, 1, -1, 1, -1, 1, 1, 1, 0, -1, 0, 1, 0, -1, 1, -1, 0, 0, -1, 0, 1, -1, -1, 1, 0, -1, 1, 1, 1, 1, -1, 0, -1, 1, 0, 0, 0, -1, 1, 1, 1, -1, 0, -1, 0, -1, -1, 1, -1, 1, -1, -1, 0, -1, -1, 1, 1, -1, -1, 0, 1, -1, -1, 0, 1, -1, 0, 1, 0, -1, 0, -1, 1, -1, 1, -1, -1, -1, 0, 1, -1, 0, 0, 1, 1, -1, 1, 1, 0, -1, 1, 0, 0, 0, 1, 1, 1, 1, 1, -1, 1, -1, -1, 1, 0, -1, 1, 1, 1, 1, -1, -1, 0, -1, -1, 1, 1, -1, -1, 0, 0, 0, -1, 1, 0, -1, 0, 1, 0, -1, 0, 1, 1, 1, 1, 1, 1, 1, 0, -1, 1, 1, 0, -1, -1, -1, -1, -1, -1, -1, 1, 1, -1, -1, 1, 1, 1, -1, 1, -1, -1, -1, 1, -1, 1, 0, 1, 0, -1, 0, 0, 0, -1, 1, -1, 0, -1, 1, 0, 0, 1, 0, 1, -1, -1, 0, -1, 0, 1, 1, 1, -1, 0, 0, -1, 1, -1, 0, 1, 1, 1, -1, -1, -1, -1, 0, 1, 0, -1, 0, -1, 0, 1, 0, 1, 0, 1, 1, 1, -1, 1, 1, 1, 1, -1, 1, -1, 0, -1, -1, -1, 1, 0, 1, 1, 0, -1, -1, 0, 1, 1, 1, -1, 1, 1, 1, -1, 0, 1, 1, 0, 1, -1, 1, 1, -1, 1, 0, 1, 0, 1, 1, 1, -1, 1, 1, 0, 1, -1, 1, -1, 0, -1, 1, 1, 0, -1, -1, 1, 0, 1, 0, -1, 1, -1, 0, 0, 0, 1, 1, 1, 1, 1, 0, -1, 0, -1, 1, 0, 0, 0, 1, -1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, -1, -1, 1, -1, 1, 0, 1, 1, -1, -1, -1, 1, 1, 1, 1, 1, 0, 1, 1, -1, 1, -1, 0, -1, 1, 1, 1, 0, 1, 0, 1, -1, -1, 1, 0, -1, 1, -1, -1, 0, -1, 0, 0, -1, 0, 1, -1, 1, 1, 0, 0, 1, 1, 1, -1, 0, 0, 1, 0, -1, -1, 1, 1, 0, -1, 1, 1, 0, 1, 0, 1, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, -1, 1, -1, -1, 1, -1, -1, 1, 1, 1, 1, 0, -1, 1, 0, 0, 0, -1, 0, 0, 0, -1, 1, -1, -1, -1, 1, 1, -1, 1, 0, 0, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, -1, 1, 1, 1, 0, 0, -1, -1, -1, 1, 1, -1, -1, -1, -1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 1, 1, 0, 0, -1, -1, 1, -1, 0, 1, -1, 1, 1, 1, 1, -1, 1, 1, 0, 1, 1, 1, 1, 1, -1, 0, 1, -1, 0, 0, 0, 0, 0, 1, -1, 1, -1, 1, 1, -1, 0, -1, -1, 0, -1, 1, 0, -1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 0, -1, 1, 0, 0, 1, -1, 1, -1, 1, 1, -1, 0, 1, 1, -1, 1, 1, 1, 1, 0, 1, -1, 1, 0, -1, -1, -1, -1, -1, -1, 1, -1, 0, 0, 0, 1, 1, -1, 0, 1, 0, 0, 1, 0, 0, 0, 0, -1, 0, 1, -1, -1, 1, -1, 1, 1, 1, -1, -1, 1, -1, 1, 1, 0, 1, -1, -1, 0, 1, -1, 1, -1, -1, -1, 1, 1, 1, -1, 0, 1, 1, 1, 1, -1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 0, -1, -1, 0, -1, 0, 0, 0, 1, -1, -1, 1, 1, 1, -1, 0, 1, -1, -1, 0, 1, 1, 1, -1, 1, -1, 0, -1, 1, 1, -1, -1, 1, -1, 0, 0, 0, 1, 1, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, -1, 1, 0, -1, -1, 1, 1, 1, 0, 1, 1, -1, 1, -1, 1, 0, -1, 1, -1, -1, 0, -1, 1, 1, 0, 0, 1, -1, 0, 1, 1, 0, 1, 1, -1, 1, 0, 1, 1, 1, 1, 1, 1, 1, -1, 0, 1, 0, 0, -1, 1, 0, 0, 1, 1, 1, 1, 1, -1, 1, 1, 0, 0, 0, 1, 0, 0, 1, -1, 1, 1, -1, 1, 0, 1, -1, 1, -1, 1, 1, 0, 1, 0, -1, 1, -1, 1, 1, 1, 1, 1, -1, -1, 0, -1, 0, -1, 0, 1, 0, -1, 0, 1, -1, 1, -1, 1, -1, -1, 0, -1, 0, 0, -1, 1, 1, 1, 1, 1, 1, 1, -1, -1, -1, -1, 0, -1, 1, -1, 1, -1, -1, 1, 0, -1, -1, 1, 1, 1, 0, 1, 0, 0, 0, -1, 0, 0, -1, -1, 0, 1, 0, 1, -1, 1, 1, 1, -1, -1, -1, 1, 1, 1, 0, -1, -1, 1, 0, 0, 1, 1, 1, 0, -1, 0, -1, -1, -1, 0, -1, 0, 1, 1, 0, 0, 1, 1, 1, 0, -1, -1, 1, -1, 0, 1, 1, 1, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 1, 1, -1, 1, 1, 1, 0, -1, 1, -1, 0, -1, 0, 0, 1, 1, 0, 0, -1, 1, 1, 1, 0, 0, -1, 1, -1, -1, 1, 1, -1, 1, 1, -1, -1, -1, 1, 0, 1, -1, 0, -1, 1, 0, -1, 0, -1, -1, -1, 0, 1, 1, 1, 0, 1, 0, -1, 1, 0, 0, 1, -1, 0, 1, 0, 1, 1, -1, 0, 1, -1, 0, -1, 0, 0, -1, 1, 0, 0, -1, 0, -1, -1, 0, 1, -1, -1, -1, 0, 1, 0, 1, -1, -1, 0, 0, 0, 1, -1, 1, 1, 0, 1, -1, -1, -1, 0, 1, -1, 0, 0, -1, 0, -1, -1, 1, 1, 0, -1, 0, 1, -1, 0, 0, 0, 1, -1, 1, 1, 0, 1, 1, 0, 1, -1, 0, 1, 1, -1, 1, 0, 1, 0, -1, 0, -1, -1, 1, -1, 1, -1, -1, 1, 1, -1, 0, -1, -1, 1, 0, -1, -1, 1, 0, 1, 0, 0, 1, -1, 1, 0, 1, -1, 1, -1, 0, 1, -1, -1, 1, 1, 0, 0, 1, 1, 1, -1, -1, 1, 0, -1, 1, 1, 0, 1, -1, -1, 1, 1, 1, 1, 0, 1, -1, 1, 1, 1, -1, -1, 1, -1, 0, -1, -1, 0, -1, 1, 1, 1, -1, 1, 0, 1, -1, 0, 1, -1, 1, 1, 0, -1, 1, -1, 0, 0, -1, -1, 1, -1, 1, 1, -1, 1, -1, 1, 1, 1, 1, 0, -1, -1, 1, -1, 0, 0, 1, 1, -1, 1, 1, 1, 0, 0, -1, 1, 0, 0, 1, -1, 1, -1, -1, -1, 0, -1, -1, 1, 0, -1, 1, -1, 1, 1, 0, -1, 0, -1, 1, -1, -1, -1, 1, -1, -1, -1, -1, 1, 1, -1, 0, 0, -1, 1, -1, -1, 1, 0, 0, 0, -1, 0, 1, 1, 0, -1, 1, -1, 1, -1, 1, -1, 1, 1, -1, 1, 1, -1, -1, -1, 0, 1, 1, -1, -1, -1, 0, 1, 1, 1, 0, 0, 0, 0, -1, -1, 0, 0, -1, 1, 1, 0, 0, 0, 0, -1, -1, 1, -1, 1, 0, 1, 1, 0, -1, -1, -1, -1, -1, 0, -1, 1, -1, -1, -1, 0, 1, 0, -1, 1, 0, 1, 1, 1, 1, 0, 1, 1, -1, 0, 1, 0, 0, -1, 1, 1, -1, 1, 1, -1, 0, -1, 1, 1, 1, 1, 1, 1, 0, -1, 0, -1, 1, 1, -1, 1, -1, 1, 0, 1, 1, 0, 1, 1, 1, -1, 1, -1, 0, 0, 1, 1, 0, 1, 1, 0, 1, -1, -1, 1, 1, 1, 0, 1, 0, 1, 0, 0, -1, 1, -1, -1, 1, 1, -1, 1, 0, 0, -1, 1, -1, 0, 0, 0, 1, -1, 1, 1, 0, 0, -1, 1, -1, -1, 1, 1, -1, 0, 1, -1, 1, 0, 1, -1, -1, -1, 0, -1, 0, -1, -1, 0, -1, -1, -1, 1, -1, 0, 1, 0, 1, -1, 0, 1, 1, -1, 1, 0, 1, -1, -1, 1, -1, 1, -1, 1, -1, -1, 1, 1, 1, 0, 0, -1, 1, 1, -1, -1, 0, 1, 0, -1, 0, 1, 1, 0, 1, -1, 1, -1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 1, -1, 1, 0, -1, 0, 1, -1, 0, -1, 1, 0, -1, 1, 1, 1, 1, 1, 1, 1, 1, 1, -1, 1, 1, -1, 0, -1, -1, -1, 1, 0, 1, 1, 1, 0, 0, 0, 1, -1, 1, -1, 1, -1, -1, 1, 1, 1, -1, 1, 1, -1, -1, -1, 1, -1, 1, 1, -1, 0, -1, 0, 1, 1, 1, 0, -1, -1, -1, 1, 1, 0, -1, 0, -1, 1, 1, 1, -1, 0, -1, -1, -1, 1, 1, 0, -1, 0, 1, -1, -1, -1, 0, 0, 1, 1, 1, -1, 0, -1, 1, 0, 0, 0, -1, 1, -1, 1, -1, 0, -1, 0, 1, -1, -1, -1, -1, 1, 0, 1, 1, -1, -1, -1, -1, 0, 1, 0, 1, -1, 1, 1, -1, 0, 1, 0, 0, 0, -1, -1, 0, -1, -1, 1, -1, 0, -1, -1, -1, -1, -1, 0, -1, 0, 1, -1, 1, 1, 0, 1, -1, 0, -1, -1, -1, 1, 0, 0, 1, 0, 1, 0, 0, -1, 0, -1, 0, 1, 0, -1, 1, 1, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 1, 1, 1, 0, 1, -1, 1, 1, -1, 1, 0, -1, 1, 1, 1, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, -1, 1, -1, -1, 0, 0, -1, 0, 0, 0, -1, 1, 1, 1, 1, -1, 0, -1, -1, 1, -1, 1, 0, -1, 1, 1, 1, 1, 0, 0, 1, 0, 1, 0, -1, 1, -1, 1, 1, -1, 1, -1, 1, 1, -1, 1, -1, 1, -1, 1, 1, 1, -1, 1, 1, 0, 1, -1, 0, -1, -1, -1, -1, -1, 1, -1, 0, -1, 0, 1, 1, -1, 1, 1, 0, 0, 1, 0, 0, 0, 1, -1, 1, 1, 0, -1, 1, -1, 1, 1, 1, -1, -1, 1, -1, 1, 1, -1, 0, -1, -1, -1, -1, -1, 0, 0, -1, -1, 1, 1, 1, 0, 0, 1, 1, 1, 0, -1, 0, 1, 1, -1, 1, 0, 0, 0, 1, 1, -1, -1, 1, -1, 1, 0, 0, 1, 1, -1, 0, 0, -1, 0, 0, -1, 1, -1, 0, 1, 1, 1, -1, 0, 1, -1, -1, 0, 1, -1, 0, 1, -1, 0, 0, 0, 1, 1, -1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, -1, 1, 1, 0, -1, -1, -1, 1, 0, 1, 1, 1, 0, 0, -1, 0, 1, -1, 1, -1, -1, -1, -1, 1, 0, -1, 0, 0, -1, 0, 1, 1, 1, -1, 0, -1, 1, 0, 1, 1, 0, 1, 1, 0, 0, -1, 0, 0, 0, 0, -1, 1, -1, 1, -1, -1, 1, 1, 1, -1, -1, 1, -1, 0, 0, 1, 0, 1, 1, -1, 1, 1, -1, 1, -1, 1, -1, 1, -1, -1, 1, -1, 1, -1, -1, 1, -1, -1, 1, 1, 1, 0, -1, -1, 0, -1, 1, -1, 0, 0, 0, -1, 1, 1, 0, 0, -1, 1, -1, -1, 0, -1, 0, 1, -1, -1, 1, -1, 1, 1, 1, 1, -1, -1, 0, -1, 1, 0, 1, -1, 0, -1, -1, 1, 0, 1, -1, 1, 0, 1, -1, 1, 0, 0, 1, -1, 0, -1, -1, -1, 0, 0, 0, -1, -1, 1, 1, 1, -1, -1, -1, 1, 1, 1, 0, -1, -1, -1, -1, 0, 1, 1, 0, 0, -1, 0, 0, -1, -1, -1, -1, 0, 1, 1, 1, 0, 1, 1, 1, 0, -1, -1, -1, -1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 1, 1, 1, 1, -1, 1, 1, 1, 0, 0, 0, -1, 0, 0, 0, -1, 0, 1, -1, 0, -1, 1, 1, 1, 0, 0, -1, 1, -1, -1, 1, 1, -1, 0, 1, -1, 0, -1, 1, 0, 1, -1, 0, -1, 0, -1, -1, 0, -1, -1, -1, 1, 1, 1, 0, -1, 1, 0, -1, 1, 1, 0, 1, -1, 1, 1, -1, 0, 0, -1, 0, 1, -1, 1, -1, 0, -1, -1, 1, 1, 0, 0, 0, 0, 0, 0, 1, -1, -1, 0, 0, 0, 0, 1, -1, -1, 0, -1, 1, 1, -1, 1, 0, 1, 1, 0, 0, -1, 0, 0, -1, 0, 0, -1, -1, 0, -1, 1, 1, 0, -1, 0, 1, -1, 0, -1, 0, 0, 1, 1, 1, 1, 1, 0, 1, 1, -1, -1, -1, 0, -1, 0, 1, 0, 0, -1, 1, 0, -1, 1, -1, 0, -1, 0, 1, 1, -1, 0, -1, -1, -1, 0, -1, 0, 1, -1, 1, 1, 0, 1, -1, 0, 0, -1, -1, -1, 0, 0, 1, -1, -1, 1, 1, 1, -1, 1, 1, 1, -1, -1, 1, 0, -1, 1, 1, 0, 1, -1, -1, 1, 1, 0, 1, -1, 0, -1, 1, 1, 1, -1, 1, 1, -1, 0, -1, -1, 1, 0, 1, 1, 1, -1, 1, 0, 1, -1, 0, 1, 1, 0, 1, 0, -1, 1, 0, 0, 0, 1, -1, 1, -1, 1, 1, -1, 0, -1, 1, 0, 1, 0, -1, -1, -1, 1, 0, 1, 0, 1, 0, -1, 1, 1, 1, 0, 0, -1, 1, 1, -1, 1, -1, 1, 0, -1, 0, -1, -1, -1, 1, -1, 0, -1, -1, 0, 1, 1, -1, -1, 0, 1, -1, -1, -1, 1, -1, -1, -1, 0, 0, 1, -1, 0, -1, -1, 1, -1, 0, 1, -1, 0, 1, -1, 0, 1, 1, 1, -1, 1, -1, 1, 0, 1, -1, 0, 1, -1, 1, 1, -1, -1, -1, 0, 0, -1, -1, 0, -1, 0, 0, 1, -1, 0, 1, 1, 0, 0, 1, 0, 0, -1, 1, 1, 0, 0, -1, 1, -1, -1, 1, 0, 1, 0, 1, 1, 1, -1, 1, -1, -1, 1, 0, 0, 0, -1, -1, -1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, -1, 1, 1, -1, 1, 1, 0, 1, -1, 1, 1, -1, 1, 1, -1, 1, -1, 1, 0, 1, 0, 1, -1, -1, -1, 0, -1, 1, 0, -1, 0, -1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, -1, 1, 0, 1, 0, 0, 0, 1, -1, 1, -1, 0, 1, -1, -1, 1, 1, 1, 1, 1, -1, -1, 1, -1, -1, 0, 1, 0, 0, 0, -1, -1, 1, 0, 0, -1, 1, 1, -1, 1, 1, 1, 0, -1, 1, -1, 0, 1, 1, 0, 0, 1, 1, 0, 0, 0, -1, -1, -1, -1, -1, 0, -1, -1, 0, 0, -1, -1, 1, -1, 1, 1, 0, 1, -1, 0, 1, 0, -1, -1, 0, 1, -1, -1, 1, 0, 0, -1, 1, -1, 0, 1, 0, 1, 1, 0, -1, 1, -1, -1, -1, 0, 1, 1, -1, 0, 0, 1, 1, 1, 0, 1, -1, 1, 1, -1, 1, 0, 1, -1, -1, 0, 1, 1, 1, 0, -1, 0, 1, 0, 1, 0, 0, 1, -1, 1, 0, 1, 1, 1, 1, 0, 1, 1, -1, 0, 1, -1, 0, -1, -1, 1, 0, 0, 1, 1, 1, 1, 1, 0, 1, 0, 1, -1, 1, -1, -1, -1, 1, 1, -1, 1, 1, -1, 0, 1, 1, -1, 0, 1, -1, 1, -1, 0, 1, 0, 1, 1, -1, -1, -1, 1, 1, 0, 0, 1, -1, 0, 0, 1, -1, 1, -1, 1, -1, -1, 1, 1, 0, -1, 1, 0, 0, -1, 0, -1, 1, 1, 1, 1, -1, -1, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, -1, -1, 1, -1, -1, -1, -1, -1, 0, 1, 1, -1, -1, -1, -1, 1, 1, 0, 0, 1, 1, 0, -1, 0, 1, 0, 0, 0, -1, -1, 0, -1, -1, 1, -1, 0, -1, -1, -1, -1, -1, 0, -1, 0, 1, -1, 1, -1, 1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 1, 0, 1, 0, 0, -1, 0, 0, 0, 0, 0, -1, 1, 1, 1, -1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 1, 1, 0, 1, 1, -1, 1, 1, -1, 0, -1, -1, -1, 0, 0, 1, 1, 1, 0, -1, 1, -1, 1, 1, 1, 0, 1, -1, 0, 0, -1, -1, -1, -1, -1, 1, 0, -1, -1, 0, -1, 1, 1, 0, 0, -1, -1, 1, 1, -1, 0, -1, 0, 1, -1, 0, 0, 1, -1, -1, 1, -1, 1, 0, -1, 1, 0, 1, 1, 1, 1, -1, 0, 1, -1, 1, -1, 0, 1, 0, -1, -1, -1, 0, 1, 1, 1, -1, 1, -1, 1, -1, 1, 1, 0, 1, -1, 1, 1, 1, -1, -1, 1, 1, 1, 0, 1, -1, 1, -1, 1, -1, 0, 1, -1, 0, 1, 1, 0, -1, -1, 1, -1, 0, 0, 0, -1, -1, 1, 0, 1, 1, -1, 0, 0, 0, 1, -1, 1, 0, -1, 1, -1, 1, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, -1, -1, -1, -1, 1, -1, 0, -1, 1, -1, 1, 0, 0, 0, 0, 1, 1, 0, 0, -1, 1, -1, -1, 1, 0, -1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, -1, 1, -1, -1, 1, 1, 1, -1, 0, -1, 0, -1, 1, 1, -1, -1, 1, 1, -1, 1, 0, 1, 1, 1, 0, 0, 1, 1, -1, -1, 0, -1, 0, 1, -1, -1, -1, 1, 0, 1, -1, 1, 1, 0, -1, -1, 0, -1, 0, -1, -1, 1, -1, -1, 0, 0, 1, -1, -1, -1, -1, 1, 1, -1, 1, -1, 1, -1, 0, 1, 1, 1, -1, -1, -1, 1, 1, 1, 1, -1, -1, 1, -1, -1, 0, 1, 1, 1, 1, 1, 0, 1, 1, 0, 1, -1, 1, -1, 0, -1, 1, -1, 1, 0, -1, 0, 1, 1, 1, 1, -1, -1, 1, 0, 1, -1, 1, 0, 0, -1, 1, 1, 0, 1, -1, 1, 1, 1, 1, 1, 0, 0, 0, -1, 1, -1, 1, -1, 0, 1, -1, 1, 1, 1, -1, 0, 1, -1, 1, 1, 0, -1, -1, 1, 1, 0, -1, 0, -1, 1, 1, 0, -1, 1, 1, 1, -1, -1, 0, -1, 1, -1, 1, 1, -1, 1, 1, 1, 0, 0, 1, 1, -1, 0, 0, -1, 1, 0, 0, -1, -1, 0, 1, 0, 1, 1, 1, -1, -1, -1, -1, 0, -1, 1, -1, -1, 1, 1, -1, 1, -1, 0, 0, 0, 0, 1, -1, 1, 1, 1, 0, -1, 1, 1, 1, 1, 0, 1, -1, -1, -1, 0, 0, 0, 0, 0, 1, -1, -1, 1, 1, -1, -1, -1, 0, -1, 1, 0, 0, -1, 1, 1, 1, -1, -1, 0, -1, 1, 1, 1, 1, 0, 1, -1, 1, 0, 1, 1, 0, 1, 0, -1, 1, 0, 1, 0, -1, 0, 1, 1, 1, 0, 0, -1, 1, -1, 0, 1, 1, 0, 1, 1, 1, 1, 1, 0, -1, 1, -1, -1, 0, 1, 0, 0, -1, 0, 1, -1, -1, -1, -1, -1, -1, 1, 0, -1, 1, 0, 0, 0, 1, 0, -1, 0, -1, 1, 0, 1, -1, -1, 0, 0, 1, 1, 0, -1, -1, -1, 1, 0, 0, -1, 1, 1, -1, -1, 1, -1, -1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, -1, 1, -1, 0, 1, -1, 0, 1, 0, 1, 1, -1, 0, 0, 1, 0, -1, 1, 1, 1, 0, 1, 1, -1, 0, 0, -1, 0, 0, 0, 1, 0, 0, -1, 0, -1, 0, -1, -1, 1, -1, 1, 0, 0, 1, 1, 0, 1, 1, 0, 1, 1, 1, -1, 1, -1, 0, 0, 1, 1, 1, 1, 0, -1, -1, 1, 1, -1, 0, -1, 1, -1, -1, 0, 1, 0, 0, 0, 1, 1, -1, -1, 0, 0, -1, -1, 1, -1, 1, -1, 1, 1, 0, -1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, -1, 1, -1, -1, 0, 1, 1, -1, 0, -1, -1, 1, 0, 1, 1, 0, 0, 1, 1, 0, 1, 0, -1, 1, -1, -1, 1, -1, 0, -1, -1, 0, 0, -1, 1, 0, 1, 1, 1, 1, 1, 1, 0, 1, 1, -1, 1, 1, 0, -1, 1, 1, 1, -1, 1, 0, 1, -1, -1, 1, 1, 0, -1, -1, -1, 0, 0, -1, 1, -1, 1, 0, -1, 0, 0, 1, 0, 1, 0, -1, -1, -1, -1, 1, -1, 0, -1, 0, 1, 0, 0, -1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, -1, -1, 1, 1, -1, -1, 0, 1, -1, 0, 0, 0, 0, -1, 0, 0, -1, 0, -1, 1, -1, -1, -1, -1, 1, 0, 0, 0, 1, 1, -1, -1, 1, -1, 1, 0, -1, -1, -1, 0, 0, -1, -1, -1, 0, 1, -1, 0, -1, 1, -1, 1, 1, 0, 1, 1, 1, 1, -1, 1, 1, 1, 0, 0, 1, 1, 1, 0, -1, 1, 0, -1, 0, 0, -1, 0, 1, -1, 0, 0, 1, 0, 1, 1, -1, 1, 1, -1, 1, 1, -1, 1, 0, 1, 1, -1, -1, 1, -1, 1, 0, -1, 0, -1, 1, 0, 1, -1, 1, 0, 1, 0, 1, 0, 1, -1, 1, 0, 1, 0, -1, 1, 1, -1, 0, 1, 1, 1, 1, 1, 0, -1, -1, 0, -1, 1, 1, -1, -1, 1, -1, -1, 1, -1, -1, 1, 1, 0, -1, 0, -1, -1, 0, 1, 1, 1, -1, 1, 1, 1, 0, -1, 1, 1, 1, -1, 0, 1, 0, 1, -1, 1, 1, 1, -1, 1, -1, 1, -1, 1, -1, 1, -1, -1, 1, 0, 0, -1, 1, 0, 0, 1, 1, 1, -1, 0, -1, 1, 0, -1, -1, 0, 1, -1, -1, 0, 0, -1, 0, 0, 0, -1, -1, -1, -1, 0, 1, 1, -1, -1, 1, -1, 0, 1, 0, -1, 0, 1, 1, 1, 0, -1, 1, 1, 0, 1, 1, -1, 0, 1, 1, 0, 0, 1, 1, 1, 0, 1, 1, 1, 0, 0, 1, 1, 1, -1, 1, -1, -1, 1, -1, 0, 0, -1, -1, 1, 1, 1, 0, 1, -1, 0, 0, -1, 0, -1, -1, 1, 1, -1, -1, 0, -1, 0, 1, 0, 1, -1, -1, -1, -1, 1, 1, 0, -1, -1, -1, 1, 1, 0, 1, 1, -1, 1, 0, 0, 1, -1, -1, -1, 0, 1, 1, -1, 1, -1, -1, 0, -1, 0, 1, 1, 0, -1, 1, 0, 1, 0, -1, -1, 1, 1, 1, 1, -1, 0, -1, 0, 0, 1, 0, 1, -1, 0, 0, 1, 1, -1, 0, -1, 1, -1, -1, 0, 0, -1, -1, 1, 1, -1, 1, -1, -1, -1, 1, 1, -1, 0, -1, 1, 1, -1, 1, -1, -1, 1, 0, 0, 1, -1, 0, 0, -1, 1, 1, 1, -1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, -1, 1, -1, 1, 1, 0, 0, 1, -1, 1, -1, -1, -1, 0, 0, 1, -1, 1, 1, 0, 1, 1, 1, 1, 1, -1, 1, -1, 0, 0, 0, -1, -1, -1, -1, 1, 1, -1, -1, 0, -1, 0, 0, 0, -1, -1, 0, -1, 1, -1, 1, 1, -1, 1, -1, 0, 0, 1, -1, -1, 1, -1, 1, 0, -1, 1, 1, 1, 1, 0, -1, -1, 0, 1, -1, 1, -1, 1, 1, -1, -1, -1, -1, 1, -1, -1, 1, -1, 0, -1, 1, -1, 1, 0, -1, 1, -1, 1, 1, 1, -1, -1, 1, 0, 0, 0, 1, -1, 1, -1, 1, -1, 0, 1, -1, -1, 0, 0, 0, -1, -1, 0, -1, 1, -1, -1, -1, 0, 0, 0, 1, 1, -1, -1, -1, 0, -1, -1, 1, -1, 0, 1, -1, 0, 0, 1, 1, 1, 0, 1, 1, 1, 1, 1, -1, -1, 0, -1, 1, -1, -1, -1, -1, -1, 1, 0, 1, -1, 0, 1, 1, -1, 0, -1, 1, 1, 0, 1, 1, -1, 1, 1, 1, 1, 1, 1, -1, -1, 1, -1, -1, -1, -1, -1, 0, 1, 1, 0, -1, 0, 0, 1, -1, -1, 1, -1, -1, 1, 1, -1, 1, 0, 1, -1, 1, -1, 0, 0, 1, -1, -1, 0, -1, 0, 0, -1, -1, -1, 1, 0, 1, -1, 1, 1, 1, -1, 0, -1, -1, 1, -1, -1, 0, -1, -1, 1, 0, 1, -1, -1, 0, -1, 1, -1, -1, 1, -1, 1, 0, 0, 1, 1, 1, 0, -1, -1, 1, 1, -1, 1, -1, -1, 1, -1, 0, 1, 1, 1, 1, -1, 1, 0, 1, 1, -1, 1, -1, 0, -1, 0, 0, 1, -1, 1, 0, -1, -1, 1, 0, 1, 1, -1, -1, 1, 0, 1, -1, 0, 0, 0, -1, -1, -1, 1, -1, -1, 1, 1, 0, 1, 1, 1, 0, 0, -1, 1, -1, 1, 0, 1, 1, -1, 1, -1, 1, -1, -1, 1, 0, 1, 1, 1, -1, -1, 0, -1, 1, -1, 0, -1, 1, 0, -1, -1, 1, 1, 1, -1, -1, 0, -1, 1, -1, 0, 1, 0, 1, 1, 1, 0, -1, 1, 1, -1, -1, 1, -1, -1, -1, -1, -1, -1, 1, 1, -1, 0, 1, 1, -1, -1, -1, -1, 1, -1, -1, -1, -1, 1, 1, -1, 1, -1, -1, -1, -1, 0, 1, -1, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, -1, 1, -1, 0, 0, 0, 1, 1, 1, -1, -1, 1, 1, -1, 0, -1, 0, 1, 0, 0, 0, -1, 1, 1, 0, 0, -1, -1, -1, 0, 1, 1, 1, 0, 1, -1, 1, 0, 1, -1, 0, 1, -1, -1, 1, 1, -1, 0, -1, 0, 0, 1, 1, -1, -1, -1, -1, -1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, -1, 1, -1, -1, 1, 1, 1, 1, 0, 1, 1, 1, 1, -1, -1, -1, 1, -1, 1, -1, 1, -1, 0, 1, 1, 1, -1, 0, -1, 1, -1, 1, -1, 1, 1, 1, 1, 1, -1, -1, -1, -1, 1, 0, 0, -1, 1, 1, -1, -1, 1, -1, -1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 0, -1, 1, 0, 0, 1, 0, 1, 1, -1, 0, 1, -1, 1, 1, 1, 1, -1, 1, 0, 1, 1, 1, 0, -1, -1, 1, 0, 0, -1, 0, 1, 0, -1, -1, 1, 0, 0, -1, -1, 1, -1, -1, 0, 0, 1, 1, 1, 1, 1, -1, 1, -1, 1, 0, 1, -1, 0, 1, -1, 0, 1, 1, 0, -1, -1, -1, 1, -1, 0, -1, 0, -1, -1, 1, 1, 0, 1, 0, 1, 1, -1, -1, 0, 0, -1, -1, 1, -1, 1, 0, 1, 1, 1, -1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, -1, 1, -1, 1, 1, -1, 0, -1, 0, -1, -1, 1, 1, 1, 0, 0, 0, 1, 1, 0, 1, -1, -1, 1, -1, -1, 1, -1, 1, -1, -1, 0, -1, -1, 1, 0, 1, 1, 1, 1, 1, 0, 1, 1, -1, 1, 1, 0, 1, -1, 1, -1, -1, -1, 1, 1, 1, -1, -1, 1, 1, 0, 1, -1, -1, -1, -1, -1, -1, -1, 1, 0, 0, 1, -1, 1, 0, 1, 1, -1, 1, -1, -1, 1, -1, 1, -1, 1, 1, 0, -1, -1, 1, 0, 1, 1, 0, 0, 0, 1, 1, 1, -1, -1, 0, 0, -1, -1, 0, 0, 1, -1, 0, 0, 1, -1, 0, 0, -1, 0, -1, 1, -1, -1, 0, -1, 1, -1, 0, 0, 1, 1, -1, -1, -1, -1, -1, -1, -1, -1, 0, 1, 1, -1, -1, 1, 0, 1, -1, -1, -1, 1, 1, 1, 0, 0, 1, 1, 1, -1, -1, 1, 1, 1, 0, 0, 1, 1, -1, 1, 1, 1, 0, 0, -1, 0, -1, -1, 1, 0, 1, 1, 1, 1, 1, 1, -1, 1, 0, -1, 1, 1, -1, 1, 0, 1, 1, -1, -1, 1, 0, 1, 0, -1, -1, 1, 1, 1, 1, -1, 0, -1, 1, 1, 1, 1, 0, 1, 1, -1, 1, 1, -1, 1, 1, -1, 0, 1, 1, 1, 1, 0, -1, -1, -1, -1, -1, 1, 0, -1, -1, 1, -1, 1, 1, -1, -1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 1, 1, -1, -1, 1, 1, 0, -1, 0, 1, 1, -1, 1, 1, -1, 1, -1, 1, 1, 1, 1, 1, -1, 1, -1, 1, -1, 0, -1, -1, -1, 1, 1, 0, 1, 1, 1, 1, 1, -1, -1, 0, -1, 1, 0, -1, -1, 0, 1, -1, -1, 1, -1, -1, 1, -1, -1, -1, -1, -1, -1, 1, 1, 0, 1, -1, 1, 1, 1, 1, 0, -1, 1, 1, 1, 1, 1, -1, 1, 1, 1, 1, 1, 0, 0, 1, 0, -1, 1, 1, 1, -1, 1, 1, 1, 1, 0, 0, 1, 0, 0, -1, 1, 0, -1, -1, -1, -1, 0, -1, -1, 1, 1, 1, 0, 1, -1, 0, 0, -1, -1, -1, -1, 1, 1, 0, -1, 1, -1, 1, 1, 0, 1, -1, -1, -1, -1, 1, 1, 1, -1, -1, -1, 0, -1, 0, 1, 1, -1, 1, -1, 0, 1, -1, -1, 0, 0, 1, 1, -1, 1, -1, -1, 0, -1, -1, 0, 1, 0, -1, 1, 0, 1, 1, 1, -1, 1, 1, 1, -1, -1, -1, -1, -1, 0, 1, 0, 1, -1, 1, 0, 1, 0, -1, -1, -1, 1, -1, -1, -1, 1, -1, -1, -1, 1, -1, 0, -1, -1, -1, 1, 1, -1, 1, -1, 0, -1, -1, 1, -1, -1, -1, 1, 0, 0, -1, -1, 0, -1, 0, 1, 1, -1, 1, 0]</t>
   </si>
 </sst>
 </file>
@@ -754,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -775,6 +733,8 @@
     <col min="15" max="15" width="17.77734375" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -811,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
@@ -833,6 +793,12 @@
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -846,46 +812,52 @@
         <v>16</v>
       </c>
       <c r="D3" s="8">
-        <v>0.71018276762401999</v>
+        <v>0.71279373368146204</v>
       </c>
       <c r="E3" s="12">
-        <v>0.74813627555138495</v>
+        <v>0.756150972098112</v>
       </c>
       <c r="F3" s="12">
-        <v>0.70588961197170996</v>
+        <v>0.70957463344035698</v>
       </c>
       <c r="G3" s="12">
-        <v>0.70446114446884101</v>
+        <v>0.70755151338381606</v>
       </c>
       <c r="H3" s="12">
-        <v>0.71018276762401999</v>
+        <v>0.71279373368146204</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -899,49 +871,53 @@
         <v>32</v>
       </c>
       <c r="D4" s="8">
-        <v>0.69277632724107896</v>
+        <v>0.71105308964316705</v>
       </c>
       <c r="E4" s="12">
-        <v>0.88194436911079599</v>
+        <v>0.87850534915923995</v>
       </c>
       <c r="F4" s="12">
-        <v>0.69379499691858004</v>
+        <v>0.70736843927908799</v>
       </c>
       <c r="G4" s="12">
-        <v>0.69847484546985605</v>
+        <v>0.70563843422140904</v>
       </c>
       <c r="H4" s="12">
-        <v>0.69277632724107896</v>
+        <v>0.71105308964316705</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -954,46 +930,52 @@
         <v>32</v>
       </c>
       <c r="D5" s="8">
-        <v>0.69190600522193202</v>
+        <v>0.69538729329852</v>
       </c>
       <c r="E5" s="12">
-        <v>1.0893267194430001</v>
+        <v>1.2873463316096201</v>
       </c>
       <c r="F5" s="12">
-        <v>0.69475440297723101</v>
+        <v>0.70021886039010905</v>
       </c>
       <c r="G5" s="12">
-        <v>0.70002896224608502</v>
+        <v>0.71349808731556197</v>
       </c>
       <c r="H5" s="13">
-        <v>0.69190600522193202</v>
+        <v>0.69538729329852</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1023,812 +1005,645 @@
         <v>16</v>
       </c>
       <c r="D7" s="8">
-        <v>0.708442123585726</v>
+        <v>0.70234986945169697</v>
       </c>
       <c r="E7" s="12">
-        <v>0.83802041080262901</v>
+        <v>0.918437208980321</v>
       </c>
       <c r="F7" s="12">
-        <v>0.71027795083717304</v>
+        <v>0.70161599970043798</v>
       </c>
       <c r="G7" s="12">
-        <v>0.71442260403143198</v>
+        <v>0.70372876800108397</v>
       </c>
       <c r="H7" s="13">
-        <v>0.708442123585726</v>
+        <v>0.70234986945169697</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.69364664926022601</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.76997919835978001</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.68604026928716599</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.68493631655755804</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.69364664926022601</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.69016536118363703</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.87885911431577401</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.69232828692778403</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.69552828062771899</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.69016536118363703</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="K12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8">
-        <v>0.65361183637945997</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.91487405200799299</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.65443754750663696</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.69171082536777595</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0.65361183637945997</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.68494342906875505</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.75442651245329095</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.68053703800081899</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.67822961916897495</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.68494342906875505</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>22</v>
+      <c r="N12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8">
-        <v>0.68668407310704904</v>
+        <v>0.68842471714534303</v>
       </c>
       <c r="E13" s="9">
-        <v>0.75075031320254004</v>
+        <v>1.2407928953568099</v>
       </c>
       <c r="F13" s="9">
-        <v>0.68379598798499497</v>
+        <v>0.68434797085538801</v>
       </c>
       <c r="G13" s="9">
-        <v>0.68168628722843705</v>
+        <v>0.68344145326717898</v>
       </c>
       <c r="H13" s="9">
-        <v>0.68668407310704904</v>
+        <v>0.68842471714534303</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.684073107049608</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.85203852835628702</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.68733302198551804</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.69183998322740203</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.684073107049608</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>4.0000000000000003E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8">
-        <v>0.671018276762402</v>
+        <v>0.69277632724107896</v>
       </c>
       <c r="E15" s="9">
-        <v>1.2761087318261399</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.66471829536578297</v>
+        <v>0.89285950031545402</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.693954471053708</v>
       </c>
       <c r="G15" s="9">
-        <v>0.66297071895995696</v>
+        <v>0.69530199565692197</v>
       </c>
       <c r="H15" s="9">
-        <v>0.671018276762402</v>
+        <v>0.69277632724107896</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.68233246301131401</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.891968441092305</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.68433714145119695</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.68689316200926398</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.68233246301131401</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.66579634464751902</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.85708852774567001</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.67228187156649799</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.70312803073934405</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.66579634464751902</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>32</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.64403829416884195</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.84554438955253997</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.65642375118157203</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.70582653793047101</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.64403829416884195</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D20" s="8"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D21" s="8"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D22" s="8"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K30" s="2"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K31" s="2"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K38" s="2"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K39" s="2"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K40" s="2"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
       <c r="M41" s="5"/>
@@ -1838,7 +1653,7 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K42" s="2"/>
       <c r="L42" s="3"/>
       <c r="M42" s="5"/>
@@ -1848,7 +1663,7 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K43" s="2"/>
       <c r="L43" s="3"/>
       <c r="M43" s="5"/>
